--- a/DDAf_2025_Tableau_annexe_Tab34.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab34.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BABD8CB4-A373-43E0-920E-90B4594A78B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4574846E-3130-4771-8FF5-7AEA27537679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{BE2390AD-45CB-46EB-8438-04D920F85C1D}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{DFA01B64-5E20-4B11-A27F-0EF1035AFE47}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab34" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: International Labour Organization - ILOSTAT (retrieved 09/09/2025).</t>
@@ -1002,7 +1002,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1379,13 +1379,11 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1668,7 +1666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3487281-9220-4D32-9230-67C4A8217743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB5729B-E0EA-491A-94D4-4D21A67249A2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1676,16 +1674,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="15.5703125" style="132" customWidth="1"/>
-    <col min="20" max="33" width="15.5703125" style="133" customWidth="1"/>
-    <col min="34" max="34" width="15.5703125" style="134" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="15.54296875" style="131" customWidth="1"/>
+    <col min="20" max="34" width="15.54296875" style="132" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1722,7 +1719,7 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="5"/>
     </row>
-    <row r="2" spans="1:34" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1826,7 +1823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>35</v>
       </c>
@@ -1930,7 +1927,7 @@
         <v>2.8529800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>37</v>
       </c>
@@ -2034,7 +2031,7 @@
         <v>1.2933969999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -2138,7 +2135,7 @@
         <v>2.5987459999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>41</v>
       </c>
@@ -2146,103 +2143,103 @@
         <v>42</v>
       </c>
       <c r="C6" s="23">
-        <v>645.44200000000001</v>
+        <v>803.31899999999996</v>
       </c>
       <c r="D6" s="30">
-        <v>2.7389999999999999</v>
+        <v>3.3580000000000001</v>
       </c>
       <c r="E6" s="30">
-        <v>13.85</v>
+        <v>12.896000000000001</v>
       </c>
       <c r="F6" s="30">
-        <v>41.247999999999998</v>
+        <v>27.690999999999999</v>
       </c>
       <c r="G6" s="30">
-        <v>23.358000000000001</v>
+        <v>28.693000000000001</v>
       </c>
       <c r="H6" s="30">
-        <v>10.746</v>
+        <v>7.5609999999999999</v>
       </c>
       <c r="I6" s="30">
-        <v>99.367999999999995</v>
+        <v>90.305999999999997</v>
       </c>
       <c r="J6" s="30">
-        <v>148.25200000000001</v>
+        <v>270.13099999999997</v>
       </c>
       <c r="K6" s="30">
-        <v>75.091999999999999</v>
+        <v>70.665999999999997</v>
       </c>
       <c r="L6" s="30">
-        <v>55.521999999999998</v>
+        <v>58.94</v>
       </c>
       <c r="M6" s="30">
-        <v>175.227</v>
+        <v>233.077</v>
       </c>
       <c r="N6" s="31" t="s">
         <v>43</v>
       </c>
       <c r="O6" s="23">
-        <v>645.44200000000001</v>
+        <v>803.31899999999996</v>
       </c>
       <c r="P6" s="30">
-        <v>175.227</v>
+        <v>233.077</v>
       </c>
       <c r="Q6" s="30">
-        <v>388.97899999999998</v>
+        <v>497.60300000000001</v>
       </c>
       <c r="R6" s="30">
-        <v>78.454999999999998</v>
+        <v>69.28</v>
       </c>
       <c r="S6" s="31">
-        <v>2.78</v>
+        <v>3.3580000000000001</v>
       </c>
       <c r="T6" s="26">
-        <v>0.42436000000000001</v>
+        <v>0.418016</v>
       </c>
       <c r="U6" s="32">
-        <v>2.1458159999999999</v>
+        <v>1.60534</v>
       </c>
       <c r="V6" s="32">
-        <v>6.3906590000000003</v>
+        <v>3.4470740000000002</v>
       </c>
       <c r="W6" s="32">
-        <v>3.6189149999999999</v>
+        <v>3.571806</v>
       </c>
       <c r="X6" s="32">
-        <v>1.664906</v>
+        <v>0.94121999999999995</v>
       </c>
       <c r="Y6" s="32">
-        <v>15.395341</v>
+        <v>11.241611000000001</v>
       </c>
       <c r="Z6" s="32">
-        <v>22.969066000000002</v>
+        <v>33.626866</v>
       </c>
       <c r="AA6" s="32">
-        <v>11.634198</v>
+        <v>8.796754</v>
       </c>
       <c r="AB6" s="32">
-        <v>8.6021669999999997</v>
+        <v>7.3370600000000001</v>
       </c>
       <c r="AC6" s="32">
-        <v>27.148372999999999</v>
+        <v>29.014251999999999</v>
       </c>
       <c r="AD6" s="32" t="s">
         <v>43</v>
       </c>
       <c r="AE6" s="26">
-        <v>27.148372999999999</v>
+        <v>29.014251999999999</v>
       </c>
       <c r="AF6" s="32">
-        <v>60.265523000000002</v>
+        <v>61.943387000000001</v>
       </c>
       <c r="AG6" s="32">
-        <v>12.155236</v>
+        <v>8.6242199999999993</v>
       </c>
       <c r="AH6" s="33">
-        <v>0.43071300000000001</v>
+        <v>0.418016</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>44</v>
       </c>
@@ -2346,7 +2343,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -2450,7 +2447,7 @@
         <v>0.18094499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>48</v>
       </c>
@@ -2554,7 +2551,7 @@
         <v>7.1646799999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
@@ -2562,103 +2559,103 @@
         <v>51</v>
       </c>
       <c r="C10" s="34">
-        <v>16737.448</v>
+        <v>17127.641</v>
       </c>
       <c r="D10" s="30">
-        <v>30.196000000000002</v>
+        <v>23.613</v>
       </c>
       <c r="E10" s="30">
-        <v>1317.989</v>
+        <v>1489.818</v>
       </c>
       <c r="F10" s="30">
-        <v>1311.39</v>
+        <v>1025.0820000000001</v>
       </c>
       <c r="G10" s="30">
-        <v>1482.152</v>
+        <v>1594.268</v>
       </c>
       <c r="H10" s="30">
-        <v>1817.095</v>
+        <v>1830.2909999999999</v>
       </c>
       <c r="I10" s="30">
-        <v>2718.4639999999999</v>
+        <v>2712.7449999999999</v>
       </c>
       <c r="J10" s="30">
-        <v>69.283000000000001</v>
+        <v>87.947999999999993</v>
       </c>
       <c r="K10" s="30">
-        <v>1697.73</v>
+        <v>1806.943</v>
       </c>
       <c r="L10" s="30">
-        <v>1330.7329999999999</v>
+        <v>1433.4770000000001</v>
       </c>
       <c r="M10" s="30">
-        <v>4801.5990000000002</v>
+        <v>4967.9520000000002</v>
       </c>
       <c r="N10" s="31">
-        <v>160.816</v>
+        <v>155.505</v>
       </c>
       <c r="O10" s="34">
-        <v>16737.448</v>
+        <v>17127.641</v>
       </c>
       <c r="P10" s="30">
-        <v>4801.5990000000002</v>
+        <v>4967.9520000000002</v>
       </c>
       <c r="Q10" s="30">
-        <v>7633.3059999999996</v>
+        <v>7871.4030000000002</v>
       </c>
       <c r="R10" s="30">
-        <v>4111.5309999999999</v>
+        <v>4109.1679999999997</v>
       </c>
       <c r="S10" s="31">
-        <v>191.01300000000001</v>
+        <v>179.11799999999999</v>
       </c>
       <c r="T10" s="35">
-        <v>0.18040999999999999</v>
+        <v>0.13786499999999999</v>
       </c>
       <c r="U10" s="32">
-        <v>7.874492</v>
+        <v>8.6983259999999998</v>
       </c>
       <c r="V10" s="32">
-        <v>7.8350650000000002</v>
+        <v>5.9849569999999996</v>
       </c>
       <c r="W10" s="32">
-        <v>8.8553049999999995</v>
+        <v>9.3081589999999998</v>
       </c>
       <c r="X10" s="32">
-        <v>10.856464000000001</v>
+        <v>10.686183</v>
       </c>
       <c r="Y10" s="32">
-        <v>16.241807000000001</v>
+        <v>15.838404000000001</v>
       </c>
       <c r="Z10" s="32">
-        <v>0.41393999999999997</v>
+        <v>0.513486</v>
       </c>
       <c r="AA10" s="32">
-        <v>10.143303</v>
+        <v>10.549865</v>
       </c>
       <c r="AB10" s="32">
-        <v>7.9506329999999998</v>
+        <v>8.3693779999999993</v>
       </c>
       <c r="AC10" s="32">
-        <v>28.687760999999998</v>
+        <v>29.005465000000001</v>
       </c>
       <c r="AD10" s="32">
-        <v>0.960816</v>
+        <v>0.907918</v>
       </c>
       <c r="AE10" s="35">
-        <v>28.687760999999998</v>
+        <v>29.005465000000001</v>
       </c>
       <c r="AF10" s="32">
-        <v>45.606152000000002</v>
+        <v>45.95731</v>
       </c>
       <c r="AG10" s="32">
-        <v>24.564862000000002</v>
+        <v>23.991441999999999</v>
       </c>
       <c r="AH10" s="33">
-        <v>1.1412310000000001</v>
+        <v>1.0457829999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
@@ -2762,7 +2759,7 @@
         <v>0.28914400000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
         <v>54</v>
       </c>
@@ -2866,109 +2863,109 @@
         <v>0.75835200000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="43"/>
       <c r="B13" s="44" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="45">
-        <v>55459.57</v>
+        <v>56007.64</v>
       </c>
       <c r="D13" s="46">
-        <v>233.34</v>
+        <v>227.376</v>
       </c>
       <c r="E13" s="46">
-        <v>1950.828</v>
+        <v>2121.703</v>
       </c>
       <c r="F13" s="46">
-        <v>2984.7750000000001</v>
+        <v>2684.91</v>
       </c>
       <c r="G13" s="46">
-        <v>2411.8629999999998</v>
+        <v>2529.3139999999999</v>
       </c>
       <c r="H13" s="46">
-        <v>2163.5369999999998</v>
+        <v>2173.5479999999998</v>
       </c>
       <c r="I13" s="46">
-        <v>8973.9240000000009</v>
+        <v>8959.143</v>
       </c>
       <c r="J13" s="46">
-        <v>21614.093000000001</v>
+        <v>21754.636999999999</v>
       </c>
       <c r="K13" s="46">
-        <v>4049.1619999999998</v>
+        <v>4153.9489999999996</v>
       </c>
       <c r="L13" s="46">
-        <v>2683.69</v>
+        <v>2789.8519999999999</v>
       </c>
       <c r="M13" s="46">
-        <v>7955.5820000000003</v>
+        <v>8179.7849999999999</v>
       </c>
       <c r="N13" s="47">
-        <v>617.31700000000001</v>
+        <v>612.00599999999997</v>
       </c>
       <c r="O13" s="45">
-        <v>55459.57</v>
+        <v>56007.64</v>
       </c>
       <c r="P13" s="46">
-        <v>7955.5820000000003</v>
+        <v>8179.7849999999999</v>
       </c>
       <c r="Q13" s="46">
-        <v>39484.406999999999</v>
+        <v>39831.127999999997</v>
       </c>
       <c r="R13" s="46">
-        <v>7347.4660000000003</v>
+        <v>7335.9279999999999</v>
       </c>
       <c r="S13" s="47">
-        <v>672.11599999999999</v>
+        <v>660.79899999999998</v>
       </c>
       <c r="T13" s="48">
-        <v>5.3580220000000001</v>
+        <v>5.309132</v>
       </c>
       <c r="U13" s="49">
-        <v>34.489673000000003</v>
+        <v>34.773031000000003</v>
       </c>
       <c r="V13" s="49">
-        <v>57.644123999999998</v>
+        <v>52.850430000000003</v>
       </c>
       <c r="W13" s="49">
-        <v>38.509753000000003</v>
+        <v>38.915497999999999</v>
       </c>
       <c r="X13" s="49">
-        <v>28.683118</v>
+        <v>27.789151</v>
       </c>
       <c r="Y13" s="49">
-        <v>153.39066700000001</v>
+        <v>148.83353399999999</v>
       </c>
       <c r="Z13" s="49">
-        <v>284.566892</v>
+        <v>295.32423699999998</v>
       </c>
       <c r="AA13" s="49">
-        <v>78.354671999999994</v>
+        <v>75.923789999999997</v>
       </c>
       <c r="AB13" s="49">
-        <v>50.297741000000002</v>
+        <v>49.45138</v>
       </c>
       <c r="AC13" s="49">
-        <v>157.353173</v>
+        <v>159.53675799999999</v>
       </c>
       <c r="AD13" s="49">
-        <v>15.267897</v>
+        <v>15.214999000000001</v>
       </c>
       <c r="AE13" s="48">
-        <v>157.353173</v>
+        <v>159.53675799999999</v>
       </c>
       <c r="AF13" s="49">
-        <v>595.29307500000004</v>
+        <v>597.32209699999999</v>
       </c>
       <c r="AG13" s="49">
-        <v>130.64385100000001</v>
+        <v>126.53941500000001</v>
       </c>
       <c r="AH13" s="50">
-        <v>16.710187000000001</v>
+        <v>16.602042000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>57</v>
       </c>
@@ -3072,7 +3069,7 @@
         <v>4.6510999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>59</v>
       </c>
@@ -3176,7 +3173,7 @@
         <v>1.209052</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>61</v>
       </c>
@@ -3280,7 +3277,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>63</v>
       </c>
@@ -3384,7 +3381,7 @@
         <v>2.3052239999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>65</v>
       </c>
@@ -3488,7 +3485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>67</v>
       </c>
@@ -3592,7 +3589,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>69</v>
       </c>
@@ -3696,7 +3693,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>71</v>
       </c>
@@ -3800,7 +3797,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="14" t="s">
         <v>73</v>
       </c>
@@ -3904,7 +3901,7 @@
         <v>5.1436710000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="43"/>
       <c r="B23" s="44" t="s">
         <v>75</v>
@@ -4006,7 +4003,7 @@
         <v>8.7044580000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>76</v>
       </c>
@@ -4110,7 +4107,7 @@
         <v>34.214886</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>78</v>
       </c>
@@ -4214,7 +4211,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>80</v>
       </c>
@@ -4318,7 +4315,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>82</v>
       </c>
@@ -4422,7 +4419,7 @@
         <v>1.492564</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>84</v>
       </c>
@@ -4526,7 +4523,7 @@
         <v>1.1273310000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>86</v>
       </c>
@@ -4630,7 +4627,7 @@
         <v>0.34156399999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>88</v>
       </c>
@@ -4734,7 +4731,7 @@
         <v>0.12911900000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>90</v>
       </c>
@@ -4742,52 +4739,52 @@
         <v>91</v>
       </c>
       <c r="C31" s="34">
-        <v>4674.3980000000001</v>
+        <v>4852.4960000000001</v>
       </c>
       <c r="D31" s="30">
         <v>25.145</v>
       </c>
       <c r="E31" s="30">
-        <v>39.481999999999999</v>
+        <v>50.783000000000001</v>
       </c>
       <c r="F31" s="30">
-        <v>243.363</v>
+        <v>282.95299999999997</v>
       </c>
       <c r="G31" s="30">
-        <v>33.302999999999997</v>
+        <v>68.634</v>
       </c>
       <c r="H31" s="30">
-        <v>32.898000000000003</v>
+        <v>43.81</v>
       </c>
       <c r="I31" s="30">
-        <v>710.03700000000003</v>
+        <v>830.43899999999996</v>
       </c>
       <c r="J31" s="30">
-        <v>922.06299999999999</v>
+        <v>684.84400000000005</v>
       </c>
       <c r="K31" s="30">
-        <v>311.54599999999999</v>
+        <v>379.45600000000002</v>
       </c>
       <c r="L31" s="30">
-        <v>107.06</v>
+        <v>140.19200000000001</v>
       </c>
       <c r="M31" s="30">
-        <v>2274.6260000000002</v>
+        <v>2371.384</v>
       </c>
       <c r="N31" s="31" t="s">
         <v>43</v>
       </c>
       <c r="O31" s="34">
-        <v>4674.3980000000001</v>
+        <v>4852.4960000000001</v>
       </c>
       <c r="P31" s="30">
-        <v>2274.6260000000002</v>
+        <v>2371.384</v>
       </c>
       <c r="Q31" s="30">
-        <v>2083.6039999999998</v>
+        <v>2078.7429999999999</v>
       </c>
       <c r="R31" s="30">
-        <v>316.14699999999999</v>
+        <v>402.36900000000003</v>
       </c>
       <c r="S31" s="31">
         <v>25.145</v>
@@ -4796,49 +4793,49 @@
         <v>0.63818399999999997</v>
       </c>
       <c r="U31" s="32">
-        <v>0.84464399999999995</v>
+        <v>1.0465340000000001</v>
       </c>
       <c r="V31" s="32">
-        <v>5.206296</v>
+        <v>5.8310820000000003</v>
       </c>
       <c r="W31" s="32">
-        <v>0.71245499999999995</v>
+        <v>1.4144060000000001</v>
       </c>
       <c r="X31" s="32">
-        <v>0.70379100000000006</v>
+        <v>0.90283400000000003</v>
       </c>
       <c r="Y31" s="32">
-        <v>15.189913000000001</v>
+        <v>17.113645999999999</v>
       </c>
       <c r="Z31" s="32">
-        <v>19.725812999999999</v>
+        <v>14.113232</v>
       </c>
       <c r="AA31" s="32">
-        <v>6.6649440000000002</v>
+        <v>7.8198109999999996</v>
       </c>
       <c r="AB31" s="32">
-        <v>2.2903479999999998</v>
+        <v>2.8890699999999998</v>
       </c>
       <c r="AC31" s="32">
-        <v>48.661368000000003</v>
+        <v>48.869365000000002</v>
       </c>
       <c r="AD31" s="32" t="s">
         <v>43</v>
       </c>
       <c r="AE31" s="35">
-        <v>48.661368000000003</v>
+        <v>48.869365000000002</v>
       </c>
       <c r="AF31" s="32">
-        <v>44.574809000000002</v>
+        <v>42.838633999999999</v>
       </c>
       <c r="AG31" s="32">
-        <v>6.7633739999999998</v>
+        <v>8.2920010000000008</v>
       </c>
       <c r="AH31" s="33">
         <v>0.63818399999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>92</v>
       </c>
@@ -4846,103 +4843,103 @@
         <v>93</v>
       </c>
       <c r="C32" s="34">
-        <v>50.718000000000004</v>
+        <v>54.991999999999997</v>
       </c>
       <c r="D32" s="30">
-        <v>0.253</v>
+        <v>0.152</v>
       </c>
       <c r="E32" s="30">
-        <v>4.7629999999999999</v>
+        <v>3.177</v>
       </c>
       <c r="F32" s="30">
-        <v>6.1</v>
+        <v>3.298</v>
       </c>
       <c r="G32" s="30">
-        <v>6.7549999999999999</v>
+        <v>3.39</v>
       </c>
       <c r="H32" s="30">
-        <v>3.6150000000000002</v>
+        <v>1.6739999999999999</v>
       </c>
       <c r="I32" s="30">
-        <v>11.654</v>
+        <v>7.0910000000000002</v>
       </c>
       <c r="J32" s="30">
-        <v>2.0030000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="K32" s="30">
-        <v>4.6760000000000002</v>
+        <v>2.331</v>
       </c>
       <c r="L32" s="30">
-        <v>3.5760000000000001</v>
+        <v>1.27</v>
       </c>
       <c r="M32" s="30">
-        <v>6.61</v>
+        <v>3.0419999999999998</v>
       </c>
       <c r="N32" s="31">
-        <v>0.71199999999999997</v>
+        <v>28.558</v>
       </c>
       <c r="O32" s="34">
-        <v>50.718000000000004</v>
+        <v>54.991999999999997</v>
       </c>
       <c r="P32" s="30">
-        <v>6.61</v>
+        <v>3.0419999999999998</v>
       </c>
       <c r="Q32" s="30">
-        <v>25.524999999999999</v>
+        <v>13.375</v>
       </c>
       <c r="R32" s="30">
-        <v>17.617999999999999</v>
+        <v>9.8650000000000002</v>
       </c>
       <c r="S32" s="31">
-        <v>0.96499999999999997</v>
+        <v>28.71</v>
       </c>
       <c r="T32" s="35">
-        <v>0.49883699999999997</v>
+        <v>0.27640399999999998</v>
       </c>
       <c r="U32" s="32">
-        <v>9.3911429999999996</v>
+        <v>5.7772040000000002</v>
       </c>
       <c r="V32" s="32">
-        <v>12.027288</v>
+        <v>5.997236</v>
       </c>
       <c r="W32" s="32">
-        <v>13.318743</v>
+        <v>6.1645329999999996</v>
       </c>
       <c r="X32" s="32">
-        <v>7.1276469999999996</v>
+        <v>3.044079</v>
       </c>
       <c r="Y32" s="32">
-        <v>22.978034999999998</v>
+        <v>12.894603</v>
       </c>
       <c r="Z32" s="32">
-        <v>3.9492880000000001</v>
+        <v>1.8366309999999999</v>
       </c>
       <c r="AA32" s="32">
-        <v>9.2196060000000006</v>
+        <v>4.2387980000000001</v>
       </c>
       <c r="AB32" s="32">
-        <v>7.050751</v>
+        <v>2.3094269999999999</v>
       </c>
       <c r="AC32" s="32">
-        <v>13.032848</v>
+        <v>5.531714</v>
       </c>
       <c r="AD32" s="32">
-        <v>1.4038409999999999</v>
+        <v>51.931190000000001</v>
       </c>
       <c r="AE32" s="35">
-        <v>13.032848</v>
+        <v>5.531714</v>
       </c>
       <c r="AF32" s="32">
-        <v>50.327300000000001</v>
+        <v>24.321719999999999</v>
       </c>
       <c r="AG32" s="32">
-        <v>34.737174000000003</v>
+        <v>17.938973000000001</v>
       </c>
       <c r="AH32" s="33">
-        <v>1.9026780000000001</v>
+        <v>52.207594</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>94</v>
       </c>
@@ -5046,7 +5043,7 @@
         <v>2.3032170000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>96</v>
       </c>
@@ -5150,7 +5147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>98</v>
       </c>
@@ -5254,7 +5251,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>100</v>
       </c>
@@ -5358,7 +5355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="14" t="s">
         <v>102</v>
       </c>
@@ -5462,109 +5459,109 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="43"/>
       <c r="B38" s="44" t="s">
         <v>104</v>
       </c>
       <c r="C38" s="45">
-        <v>89722.39</v>
+        <v>89904.762000000002</v>
       </c>
       <c r="D38" s="46">
-        <v>277.92599999999999</v>
+        <v>277.82499999999999</v>
       </c>
       <c r="E38" s="46">
-        <v>1615.6220000000001</v>
+        <v>1625.337</v>
       </c>
       <c r="F38" s="46">
-        <v>2921.674</v>
+        <v>2958.462</v>
       </c>
       <c r="G38" s="46">
-        <v>1912.201</v>
+        <v>1944.1669999999999</v>
       </c>
       <c r="H38" s="46">
-        <v>619.23800000000006</v>
+        <v>628.20899999999995</v>
       </c>
       <c r="I38" s="46">
-        <v>10153.143</v>
+        <v>10268.982</v>
       </c>
       <c r="J38" s="46">
-        <v>40754.044999999998</v>
+        <v>40515.832999999999</v>
       </c>
       <c r="K38" s="46">
-        <v>4516.723</v>
+        <v>4582.2879999999996</v>
       </c>
       <c r="L38" s="46">
-        <v>2650.7069999999999</v>
+        <v>2681.5329999999999</v>
       </c>
       <c r="M38" s="46">
-        <v>23522.975999999999</v>
+        <v>23616.166000000001</v>
       </c>
       <c r="N38" s="47">
-        <v>863.255</v>
+        <v>891.101</v>
       </c>
       <c r="O38" s="45">
-        <v>89722.39</v>
+        <v>89904.762000000002</v>
       </c>
       <c r="P38" s="46">
-        <v>23522.975999999999</v>
+        <v>23616.166000000001</v>
       </c>
       <c r="Q38" s="46">
-        <v>58693.860999999997</v>
+        <v>58676.85</v>
       </c>
       <c r="R38" s="46">
-        <v>6449.4960000000001</v>
+        <v>6527.9650000000001</v>
       </c>
       <c r="S38" s="47">
-        <v>1081.182</v>
+        <v>1108.9269999999999</v>
       </c>
       <c r="T38" s="48">
-        <v>5.3520880000000002</v>
+        <v>5.1296549999999996</v>
       </c>
       <c r="U38" s="49">
-        <v>37.801751000000003</v>
+        <v>34.389702</v>
       </c>
       <c r="V38" s="49">
-        <v>63.437004999999999</v>
+        <v>58.031737999999997</v>
       </c>
       <c r="W38" s="49">
-        <v>39.130861000000003</v>
+        <v>32.678601</v>
       </c>
       <c r="X38" s="49">
-        <v>25.377001</v>
+        <v>21.492476</v>
       </c>
       <c r="Y38" s="49">
-        <v>101.812411</v>
+        <v>93.652710999999996</v>
       </c>
       <c r="Z38" s="49">
-        <v>180.78926000000001</v>
+        <v>173.064021</v>
       </c>
       <c r="AA38" s="49">
-        <v>58.131754000000001</v>
+        <v>54.305813000000001</v>
       </c>
       <c r="AB38" s="49">
-        <v>31.489362</v>
+        <v>27.346758999999999</v>
       </c>
       <c r="AC38" s="49">
-        <v>220.51712699999999</v>
+        <v>213.22398999999999</v>
       </c>
       <c r="AD38" s="49">
-        <v>36.797454999999999</v>
+        <v>87.324804</v>
       </c>
       <c r="AE38" s="48">
-        <v>220.51712699999999</v>
+        <v>213.22398999999999</v>
       </c>
       <c r="AF38" s="49">
-        <v>397.60177599999997</v>
+        <v>369.86002000000002</v>
       </c>
       <c r="AG38" s="49">
-        <v>140.369595</v>
+        <v>125.100021</v>
       </c>
       <c r="AH38" s="50">
-        <v>42.149543000000001</v>
+        <v>92.454459999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>105</v>
       </c>
@@ -5668,7 +5665,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
         <v>107</v>
       </c>
@@ -5772,7 +5769,7 @@
         <v>3.1018129999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
         <v>109</v>
       </c>
@@ -5876,7 +5873,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
         <v>111</v>
       </c>
@@ -5980,7 +5977,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
         <v>113</v>
       </c>
@@ -6084,7 +6081,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="14" t="s">
         <v>115</v>
       </c>
@@ -6188,7 +6185,7 @@
         <v>0.37850099999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="43"/>
       <c r="B45" s="44" t="s">
         <v>117</v>
@@ -6290,7 +6287,7 @@
         <v>3.4803139999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>118</v>
       </c>
@@ -6394,7 +6391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
         <v>120</v>
       </c>
@@ -6402,103 +6399,103 @@
         <v>121</v>
       </c>
       <c r="C47" s="34">
-        <v>5291.7259999999997</v>
+        <v>7877.5460000000003</v>
       </c>
       <c r="D47" s="30">
-        <v>8.9819999999999993</v>
+        <v>18.199000000000002</v>
       </c>
       <c r="E47" s="30">
-        <v>82.454999999999998</v>
+        <v>230.81399999999999</v>
       </c>
       <c r="F47" s="30">
-        <v>248.34800000000001</v>
+        <v>411.30200000000002</v>
       </c>
       <c r="G47" s="30">
-        <v>271.83199999999999</v>
+        <v>322.20999999999998</v>
       </c>
       <c r="H47" s="30">
-        <v>72.914000000000001</v>
+        <v>42.860999999999997</v>
       </c>
       <c r="I47" s="30">
-        <v>1555.723</v>
+        <v>1255.9290000000001</v>
       </c>
       <c r="J47" s="30">
-        <v>1409.3530000000001</v>
+        <v>4278.9740000000002</v>
       </c>
       <c r="K47" s="30">
-        <v>788.04399999999998</v>
+        <v>692.351</v>
       </c>
       <c r="L47" s="30">
-        <v>204.60599999999999</v>
+        <v>118.161</v>
       </c>
       <c r="M47" s="30">
-        <v>546.14599999999996</v>
+        <v>506.74299999999999</v>
       </c>
       <c r="N47" s="31">
         <v>103.322</v>
       </c>
       <c r="O47" s="34">
-        <v>5291.7259999999997</v>
+        <v>7877.5460000000003</v>
       </c>
       <c r="P47" s="30">
-        <v>546.14599999999996</v>
+        <v>506.74299999999999</v>
       </c>
       <c r="Q47" s="30">
-        <v>4030.64</v>
+        <v>6388.277</v>
       </c>
       <c r="R47" s="30">
-        <v>602.63499999999999</v>
+        <v>964.327</v>
       </c>
       <c r="S47" s="31">
-        <v>112.304</v>
+        <v>18.199000000000002</v>
       </c>
       <c r="T47" s="35">
-        <v>0.169737</v>
+        <v>0.23102400000000001</v>
       </c>
       <c r="U47" s="32">
-        <v>1.558187</v>
+        <v>2.930024</v>
       </c>
       <c r="V47" s="32">
-        <v>4.6931380000000003</v>
+        <v>5.2211949999999998</v>
       </c>
       <c r="W47" s="32">
-        <v>5.1369249999999997</v>
+        <v>4.0902329999999996</v>
       </c>
       <c r="X47" s="32">
-        <v>1.3778870000000001</v>
+        <v>0.54409099999999999</v>
       </c>
       <c r="Y47" s="32">
-        <v>29.399159999999998</v>
+        <v>15.943149999999999</v>
       </c>
       <c r="Z47" s="32">
-        <v>26.633144000000001</v>
+        <v>54.318615999999999</v>
       </c>
       <c r="AA47" s="32">
-        <v>14.892003000000001</v>
+        <v>8.7889169999999996</v>
       </c>
       <c r="AB47" s="32">
-        <v>3.866527</v>
+        <v>1.4999720000000001</v>
       </c>
       <c r="AC47" s="32">
-        <v>10.320754000000001</v>
+        <v>6.4327519999999998</v>
       </c>
       <c r="AD47" s="32">
         <v>1.95252</v>
       </c>
       <c r="AE47" s="35">
-        <v>10.320754000000001</v>
+        <v>6.4327519999999998</v>
       </c>
       <c r="AF47" s="32">
-        <v>76.168721000000005</v>
+        <v>81.094759999999994</v>
       </c>
       <c r="AG47" s="32">
-        <v>11.388249999999999</v>
+        <v>12.241465</v>
       </c>
       <c r="AH47" s="33">
-        <v>2.1222569999999998</v>
+        <v>0.23102400000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
         <v>122</v>
       </c>
@@ -6602,7 +6599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
         <v>124</v>
       </c>
@@ -6706,7 +6703,7 @@
         <v>1.5134570000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>126</v>
       </c>
@@ -6810,7 +6807,7 @@
         <v>0.35093400000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
         <v>128</v>
       </c>
@@ -6914,7 +6911,7 @@
         <v>3.4018869999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
         <v>130</v>
       </c>
@@ -7018,7 +7015,7 @@
         <v>1.020581</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>132</v>
       </c>
@@ -7122,7 +7119,7 @@
         <v>1.034543</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
         <v>134</v>
       </c>
@@ -7226,7 +7223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
         <v>136</v>
       </c>
@@ -7330,7 +7327,7 @@
         <v>0.181643</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>138</v>
       </c>
@@ -7434,7 +7431,7 @@
         <v>0.60090200000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>140</v>
       </c>
@@ -7538,7 +7535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
         <v>142</v>
       </c>
@@ -7642,7 +7639,7 @@
         <v>61.429704999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
         <v>144</v>
       </c>
@@ -7746,7 +7743,7 @@
         <v>1.1323920000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="14" t="s">
         <v>146</v>
       </c>
@@ -7850,874 +7847,874 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="43"/>
       <c r="B61" s="44" t="s">
         <v>148</v>
       </c>
       <c r="C61" s="45">
-        <v>65661.341</v>
+        <v>68247.160999999993</v>
       </c>
       <c r="D61" s="46">
-        <v>207.18199999999999</v>
+        <v>216.399</v>
       </c>
       <c r="E61" s="46">
-        <v>487.66399999999999</v>
+        <v>636.02300000000002</v>
       </c>
       <c r="F61" s="46">
-        <v>2256.576</v>
+        <v>2419.5300000000002</v>
       </c>
       <c r="G61" s="46">
-        <v>1150.652</v>
+        <v>1201.03</v>
       </c>
       <c r="H61" s="46">
-        <v>905.96500000000003</v>
+        <v>875.91200000000003</v>
       </c>
       <c r="I61" s="46">
-        <v>16941.652999999998</v>
+        <v>16641.859</v>
       </c>
       <c r="J61" s="46">
-        <v>30042.002</v>
+        <v>32911.623</v>
       </c>
       <c r="K61" s="46">
-        <v>7277.2709999999997</v>
+        <v>7181.5780000000004</v>
       </c>
       <c r="L61" s="46">
-        <v>1774.5609999999999</v>
+        <v>1688.116</v>
       </c>
       <c r="M61" s="46">
-        <v>3953.6619999999998</v>
+        <v>3914.259</v>
       </c>
       <c r="N61" s="47">
         <v>2414.623</v>
       </c>
       <c r="O61" s="45">
-        <v>65661.341</v>
+        <v>68247.160999999993</v>
       </c>
       <c r="P61" s="46">
-        <v>3953.6619999999998</v>
+        <v>3914.259</v>
       </c>
       <c r="Q61" s="46">
-        <v>56941.451000000001</v>
+        <v>59299.088000000003</v>
       </c>
       <c r="R61" s="46">
-        <v>3894.8910000000001</v>
+        <v>4256.5829999999996</v>
       </c>
       <c r="S61" s="47">
-        <v>871.33600000000001</v>
+        <v>777.23099999999999</v>
       </c>
       <c r="T61" s="48">
-        <v>4.4076230000000001</v>
+        <v>4.4689100000000002</v>
       </c>
       <c r="U61" s="49">
-        <v>8.085528</v>
+        <v>9.4573649999999994</v>
       </c>
       <c r="V61" s="49">
-        <v>40.148839000000002</v>
+        <v>40.676895000000002</v>
       </c>
       <c r="W61" s="49">
-        <v>17.810205</v>
+        <v>16.763513</v>
       </c>
       <c r="X61" s="49">
-        <v>11.828087999999999</v>
+        <v>10.994291</v>
       </c>
       <c r="Y61" s="49">
-        <v>228.18388300000001</v>
+        <v>214.72787299999999</v>
       </c>
       <c r="Z61" s="49">
-        <v>400.25519100000002</v>
+        <v>427.94066400000003</v>
       </c>
       <c r="AA61" s="49">
-        <v>99.702205000000006</v>
+        <v>93.599119999999999</v>
       </c>
       <c r="AB61" s="49">
-        <v>29.094881000000001</v>
+        <v>26.728325999999999</v>
       </c>
       <c r="AC61" s="49">
-        <v>92.103035000000006</v>
+        <v>88.215033000000005</v>
       </c>
       <c r="AD61" s="49">
         <v>122.29872</v>
       </c>
       <c r="AE61" s="48">
-        <v>92.103035000000006</v>
+        <v>88.215033000000005</v>
       </c>
       <c r="AF61" s="49">
-        <v>769.06422099999997</v>
+        <v>773.99026000000003</v>
       </c>
       <c r="AG61" s="49">
-        <v>66.044431000000003</v>
+        <v>66.897645999999995</v>
       </c>
       <c r="AH61" s="50">
-        <v>72.788298999999995</v>
+        <v>70.897065999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="80"/>
       <c r="B62" s="81" t="s">
         <v>149</v>
       </c>
       <c r="C62" s="82">
-        <v>293906.23100000003</v>
+        <v>297222.49300000002</v>
       </c>
       <c r="D62" s="83">
-        <v>831.72500000000002</v>
+        <v>834.87699999999995</v>
       </c>
       <c r="E62" s="83">
-        <v>7602.268</v>
+        <v>7931.2169999999996</v>
       </c>
       <c r="F62" s="83">
-        <v>14231.625</v>
+        <v>14131.502</v>
       </c>
       <c r="G62" s="83">
-        <v>8867.14</v>
+        <v>9066.9349999999995</v>
       </c>
       <c r="H62" s="83">
-        <v>5673.2690000000002</v>
+        <v>5662.1980000000003</v>
       </c>
       <c r="I62" s="83">
-        <v>46315.322</v>
+        <v>46116.586000000003</v>
       </c>
       <c r="J62" s="83">
-        <v>131213.853</v>
+        <v>133985.80600000001</v>
       </c>
       <c r="K62" s="83">
-        <v>24387.876</v>
+        <v>24462.535</v>
       </c>
       <c r="L62" s="83">
-        <v>12191.413</v>
+        <v>12241.956</v>
       </c>
       <c r="M62" s="83">
-        <v>39167.135999999999</v>
+        <v>39445.125999999997</v>
       </c>
       <c r="N62" s="84">
-        <v>5424.2079999999996</v>
+        <v>5446.7430000000004</v>
       </c>
       <c r="O62" s="82">
-        <v>293906.23100000003</v>
+        <v>297222.49300000002</v>
       </c>
       <c r="P62" s="83">
-        <v>39167.135999999999</v>
+        <v>39445.125999999997</v>
       </c>
       <c r="Q62" s="83">
-        <v>219781.736</v>
+        <v>222469.08300000001</v>
       </c>
       <c r="R62" s="83">
-        <v>30701.031999999999</v>
+        <v>31129.654999999999</v>
       </c>
       <c r="S62" s="84">
-        <v>4281.451</v>
+        <v>4203.7740000000003</v>
       </c>
       <c r="T62" s="85">
-        <v>16.800232999999999</v>
+        <v>16.590198000000001</v>
       </c>
       <c r="U62" s="86">
-        <v>107.795777</v>
+        <v>106.038922</v>
       </c>
       <c r="V62" s="86">
-        <v>200.982969</v>
+        <v>191.31206599999999</v>
       </c>
       <c r="W62" s="86">
-        <v>118.51294799999999</v>
+        <v>111.419742</v>
       </c>
       <c r="X62" s="86">
-        <v>81.756979000000001</v>
+        <v>76.144690999999995</v>
       </c>
       <c r="Y62" s="86">
-        <v>578.00078399999995</v>
+        <v>551.82794200000001</v>
       </c>
       <c r="Z62" s="86">
-        <v>1096.638187</v>
+        <v>1127.3557659999999</v>
       </c>
       <c r="AA62" s="86">
-        <v>305.75317100000001</v>
+        <v>293.39326299999999</v>
       </c>
       <c r="AB62" s="86">
-        <v>148.74091100000001</v>
+        <v>141.385392</v>
       </c>
       <c r="AC62" s="86">
-        <v>518.616939</v>
+        <v>509.61938500000002</v>
       </c>
       <c r="AD62" s="86">
-        <v>183.930699</v>
+        <v>234.40515099999999</v>
       </c>
       <c r="AE62" s="85">
-        <v>518.616939</v>
+        <v>509.61938500000002</v>
       </c>
       <c r="AF62" s="86">
-        <v>2210.8919729999998</v>
+        <v>2190.1052770000001</v>
       </c>
       <c r="AG62" s="86">
-        <v>427.29185699999999</v>
+        <v>408.77105999999998</v>
       </c>
       <c r="AH62" s="87">
-        <v>143.83280099999999</v>
+        <v>192.13834</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="80"/>
       <c r="B63" s="81" t="s">
         <v>150</v>
       </c>
       <c r="C63" s="82">
-        <v>1930737.513</v>
+        <v>1952105.9879999999</v>
       </c>
       <c r="D63" s="83">
-        <v>5046.7730000000001</v>
+        <v>5120.2870000000003</v>
       </c>
       <c r="E63" s="83">
-        <v>85837.63</v>
+        <v>85883.649000000005</v>
       </c>
       <c r="F63" s="83">
-        <v>237379.552</v>
+        <v>241801.538</v>
       </c>
       <c r="G63" s="83">
-        <v>140929.85699999999</v>
+        <v>142368.948</v>
       </c>
       <c r="H63" s="83">
-        <v>109055.685</v>
+        <v>109952.072</v>
       </c>
       <c r="I63" s="83">
-        <v>333839.08899999998</v>
+        <v>333651.97499999998</v>
       </c>
       <c r="J63" s="83">
-        <v>332711.12099999998</v>
+        <v>332915.63799999998</v>
       </c>
       <c r="K63" s="83">
-        <v>220910.37899999999</v>
+        <v>221870.916</v>
       </c>
       <c r="L63" s="83">
-        <v>148017.03899999999</v>
+        <v>150274.44</v>
       </c>
       <c r="M63" s="83">
-        <v>308707.35499999998</v>
+        <v>310345.49300000002</v>
       </c>
       <c r="N63" s="84">
-        <v>25657.368999999999</v>
+        <v>35363.620000000003</v>
       </c>
       <c r="O63" s="82">
-        <v>1930787.6089999999</v>
+        <v>1952156.084</v>
       </c>
       <c r="P63" s="83">
-        <v>308706.91399999999</v>
+        <v>310348.93800000002</v>
       </c>
       <c r="Q63" s="83">
-        <v>1144653.375</v>
+        <v>1148770.673</v>
       </c>
       <c r="R63" s="83">
-        <v>464146.00300000003</v>
+        <v>470052.33100000001</v>
       </c>
       <c r="S63" s="84">
-        <v>28918.989000000001</v>
+        <v>38680.290999999997</v>
       </c>
       <c r="T63" s="85">
-        <v>56.267352000000002</v>
+        <v>57.561914999999999</v>
       </c>
       <c r="U63" s="86">
-        <v>552.00473799999997</v>
+        <v>543.59894199999997</v>
       </c>
       <c r="V63" s="86">
-        <v>1622.2450020000001</v>
+        <v>1623.41041</v>
       </c>
       <c r="W63" s="86">
-        <v>994.55276200000003</v>
+        <v>992.62555299999997</v>
       </c>
       <c r="X63" s="86">
-        <v>671.91583000000003</v>
+        <v>665.61210200000005</v>
       </c>
       <c r="Y63" s="86">
-        <v>1899.8792820000001</v>
+        <v>1869.65301</v>
       </c>
       <c r="Z63" s="86">
-        <v>1100.7725519999999</v>
+        <v>1080.8159410000001</v>
       </c>
       <c r="AA63" s="86">
-        <v>1218.5448429999999</v>
+        <v>1206.2844359999999</v>
       </c>
       <c r="AB63" s="86">
-        <v>787.24250800000004</v>
+        <v>773.96620399999995</v>
       </c>
       <c r="AC63" s="86">
-        <v>1343.1682149999999</v>
+        <v>1321.6248430000001</v>
       </c>
       <c r="AD63" s="86">
-        <v>234.08198400000001</v>
+        <v>346.55721199999999</v>
       </c>
       <c r="AE63" s="85">
-        <v>1342.3497589999999</v>
+        <v>1321.0126439999999</v>
       </c>
       <c r="AF63" s="86">
-        <v>5682.8182189999998</v>
+        <v>5599.9709389999998</v>
       </c>
       <c r="AG63" s="86">
-        <v>3168.351447</v>
+        <v>3159.1686840000002</v>
       </c>
       <c r="AH63" s="87">
-        <v>275.31161600000001</v>
+        <v>389.32854800000001</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" s="88"/>
       <c r="B64" s="89" t="s">
         <v>151</v>
       </c>
       <c r="C64" s="90">
-        <v>281424.91700000002</v>
+        <v>285767.94</v>
       </c>
       <c r="D64" s="91">
-        <v>1262.614</v>
+        <v>1312.26</v>
       </c>
       <c r="E64" s="91">
-        <v>9322.2489999999998</v>
+        <v>9658.7849999999999</v>
       </c>
       <c r="F64" s="91">
-        <v>31111.978999999999</v>
+        <v>31875.776000000002</v>
       </c>
       <c r="G64" s="91">
-        <v>20896.282999999999</v>
+        <v>21618.444</v>
       </c>
       <c r="H64" s="91">
-        <v>19333.8</v>
+        <v>19622.269</v>
       </c>
       <c r="I64" s="91">
-        <v>62903.909</v>
+        <v>63476.656999999999</v>
       </c>
       <c r="J64" s="91">
-        <v>19653.632000000001</v>
+        <v>19134.291000000001</v>
       </c>
       <c r="K64" s="91">
-        <v>34756.080999999998</v>
+        <v>34905.902999999998</v>
       </c>
       <c r="L64" s="91">
-        <v>27101.66</v>
+        <v>27788.544999999998</v>
       </c>
       <c r="M64" s="91">
-        <v>53104.262000000002</v>
+        <v>53000.349000000002</v>
       </c>
       <c r="N64" s="92">
-        <v>3116.0219999999999</v>
+        <v>4511.4229999999998</v>
       </c>
       <c r="O64" s="90">
-        <v>281475.01299999998</v>
+        <v>285818.03600000002</v>
       </c>
       <c r="P64" s="91">
-        <v>53103.821000000004</v>
+        <v>53003.794000000002</v>
       </c>
       <c r="Q64" s="91">
-        <v>163869.15100000001</v>
+        <v>165033.30499999999</v>
       </c>
       <c r="R64" s="91">
-        <v>61329.474999999999</v>
+        <v>63151.195</v>
       </c>
       <c r="S64" s="92">
-        <v>4225.5479999999998</v>
+        <v>5682.7290000000003</v>
       </c>
       <c r="T64" s="93">
-        <v>14.524687</v>
+        <v>14.709733999999999</v>
       </c>
       <c r="U64" s="94">
-        <v>104.424931</v>
+        <v>105.040395</v>
       </c>
       <c r="V64" s="94">
-        <v>248.708855</v>
+        <v>247.36786799999999</v>
       </c>
       <c r="W64" s="94">
-        <v>189.532681</v>
+        <v>191.78992299999999</v>
       </c>
       <c r="X64" s="94">
-        <v>173.44967399999999</v>
+        <v>170.44739000000001</v>
       </c>
       <c r="Y64" s="94">
-        <v>598.09113000000002</v>
+        <v>594.33512199999996</v>
       </c>
       <c r="Z64" s="94">
-        <v>204.59325899999999</v>
+        <v>200.10477399999999</v>
       </c>
       <c r="AA64" s="94">
-        <v>322.96388999999999</v>
+        <v>319.27242100000001</v>
       </c>
       <c r="AB64" s="94">
-        <v>204.17871299999999</v>
+        <v>203.79868500000001</v>
       </c>
       <c r="AC64" s="94">
-        <v>511.53604100000001</v>
+        <v>501.014858</v>
       </c>
       <c r="AD64" s="94">
-        <v>83.888174000000006</v>
+        <v>107.99911299999999</v>
       </c>
       <c r="AE64" s="93">
-        <v>510.71758499999999</v>
+        <v>500.40265900000003</v>
       </c>
       <c r="AF64" s="94">
-        <v>1507.7384139999999</v>
+        <v>1491.59618</v>
       </c>
       <c r="AG64" s="94">
-        <v>542.21623699999998</v>
+        <v>543.73231199999998</v>
       </c>
       <c r="AH64" s="95">
-        <v>92.868707999999998</v>
+        <v>117.809872</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" s="88"/>
       <c r="B65" s="96" t="s">
         <v>152</v>
       </c>
       <c r="C65" s="97">
-        <v>976269.973</v>
+        <v>987077.19200000004</v>
       </c>
       <c r="D65" s="98">
-        <v>2518.0439999999999</v>
+        <v>2515.5970000000002</v>
       </c>
       <c r="E65" s="98">
-        <v>28235.434000000001</v>
+        <v>28162.050999999999</v>
       </c>
       <c r="F65" s="98">
-        <v>58143.453000000001</v>
+        <v>58534.082000000002</v>
       </c>
       <c r="G65" s="98">
-        <v>29149.516</v>
+        <v>29558.092000000001</v>
       </c>
       <c r="H65" s="98">
-        <v>26810.526999999998</v>
+        <v>27532.309000000001</v>
       </c>
       <c r="I65" s="98">
-        <v>159691.82199999999</v>
+        <v>161232.75700000001</v>
       </c>
       <c r="J65" s="98">
-        <v>292477.33399999997</v>
+        <v>294034.01699999999</v>
       </c>
       <c r="K65" s="98">
-        <v>117620.774</v>
+        <v>119300.38499999999</v>
       </c>
       <c r="L65" s="98">
-        <v>69144.006999999998</v>
+        <v>71584.604000000007</v>
       </c>
       <c r="M65" s="98">
-        <v>189043.72099999999</v>
+        <v>191151.345</v>
       </c>
       <c r="N65" s="99">
-        <v>7018.009</v>
+        <v>7054.6220000000003</v>
       </c>
       <c r="O65" s="97">
-        <v>976269.973</v>
+        <v>987077.19200000004</v>
       </c>
       <c r="P65" s="98">
-        <v>189043.72099999999</v>
+        <v>191151.345</v>
       </c>
       <c r="Q65" s="98">
-        <v>665744.45900000003</v>
+        <v>673684.06799999997</v>
       </c>
       <c r="R65" s="98">
-        <v>115528.40399999999</v>
+        <v>116254.22500000001</v>
       </c>
       <c r="S65" s="99">
-        <v>7995.0609999999997</v>
+        <v>8029.2259999999997</v>
       </c>
       <c r="T65" s="100">
-        <v>18.037265999999999</v>
+        <v>18.095973000000001</v>
       </c>
       <c r="U65" s="101">
-        <v>56.461367000000003</v>
+        <v>57.174339000000003</v>
       </c>
       <c r="V65" s="101">
-        <v>159.51004599999999</v>
+        <v>160.224468</v>
       </c>
       <c r="W65" s="101">
-        <v>85.970115000000007</v>
+        <v>86.465982999999994</v>
       </c>
       <c r="X65" s="101">
-        <v>58.284790999999998</v>
+        <v>57.854380999999997</v>
       </c>
       <c r="Y65" s="101">
-        <v>344.51124099999998</v>
+        <v>343.74667399999998</v>
       </c>
       <c r="Z65" s="101">
-        <v>489.887383</v>
+        <v>486.38190900000001</v>
       </c>
       <c r="AA65" s="101">
-        <v>243.88564</v>
+        <v>244.781038</v>
       </c>
       <c r="AB65" s="101">
-        <v>151.720767</v>
+        <v>153.284302</v>
       </c>
       <c r="AC65" s="101">
-        <v>267.27016300000003</v>
+        <v>267.58940100000001</v>
       </c>
       <c r="AD65" s="101">
-        <v>30.793023999999999</v>
+        <v>30.733066000000001</v>
       </c>
       <c r="AE65" s="100">
-        <v>267.27016300000003</v>
+        <v>267.58940100000001</v>
       </c>
       <c r="AF65" s="101">
-        <v>1288.2890219999999</v>
+        <v>1286.047777</v>
       </c>
       <c r="AG65" s="101">
-        <v>301.94149800000002</v>
+        <v>303.86475899999999</v>
       </c>
       <c r="AH65" s="102">
-        <v>43.452739999999999</v>
+        <v>43.451487</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="88"/>
       <c r="B66" s="103" t="s">
         <v>153</v>
       </c>
       <c r="C66" s="104">
-        <v>2224643.7439999999</v>
+        <v>2249328.4810000001</v>
       </c>
       <c r="D66" s="105">
-        <v>5878.4979999999996</v>
+        <v>5955.1639999999998</v>
       </c>
       <c r="E66" s="105">
-        <v>93439.898000000001</v>
+        <v>93814.865999999995</v>
       </c>
       <c r="F66" s="105">
-        <v>251611.177</v>
+        <v>255933.04</v>
       </c>
       <c r="G66" s="105">
-        <v>149796.997</v>
+        <v>151435.883</v>
       </c>
       <c r="H66" s="105">
-        <v>114728.954</v>
+        <v>115614.27</v>
       </c>
       <c r="I66" s="105">
-        <v>380154.41100000002</v>
+        <v>379768.56099999999</v>
       </c>
       <c r="J66" s="105">
-        <v>463924.97399999999</v>
+        <v>466901.44400000002</v>
       </c>
       <c r="K66" s="105">
-        <v>245298.255</v>
+        <v>246333.451</v>
       </c>
       <c r="L66" s="105">
-        <v>160208.45199999999</v>
+        <v>162516.39600000001</v>
       </c>
       <c r="M66" s="105">
-        <v>347874.49099999998</v>
+        <v>349790.61900000001</v>
       </c>
       <c r="N66" s="106">
-        <v>31081.577000000001</v>
+        <v>40810.362999999998</v>
       </c>
       <c r="O66" s="104">
-        <v>2224693.84</v>
+        <v>2249378.577</v>
       </c>
       <c r="P66" s="105">
-        <v>347874.05</v>
+        <v>349794.06400000001</v>
       </c>
       <c r="Q66" s="105">
-        <v>1364435.111</v>
+        <v>1371239.7560000001</v>
       </c>
       <c r="R66" s="105">
-        <v>494847.03499999997</v>
+        <v>501181.98599999998</v>
       </c>
       <c r="S66" s="106">
-        <v>33200.44</v>
+        <v>42884.065000000002</v>
       </c>
       <c r="T66" s="107">
-        <v>73.067584999999994</v>
+        <v>74.152112000000002</v>
       </c>
       <c r="U66" s="108">
-        <v>659.80051500000002</v>
+        <v>649.63786300000004</v>
       </c>
       <c r="V66" s="108">
-        <v>1823.2279719999999</v>
+        <v>1814.7224759999999</v>
       </c>
       <c r="W66" s="108">
-        <v>1113.0657100000001</v>
+        <v>1104.0452949999999</v>
       </c>
       <c r="X66" s="108">
-        <v>753.67280900000003</v>
+        <v>741.75679300000002</v>
       </c>
       <c r="Y66" s="108">
-        <v>2477.8800660000002</v>
+        <v>2421.480951</v>
       </c>
       <c r="Z66" s="108">
-        <v>2197.4107399999998</v>
+        <v>2208.1717079999999</v>
       </c>
       <c r="AA66" s="108">
-        <v>1524.298014</v>
+        <v>1499.6776990000001</v>
       </c>
       <c r="AB66" s="108">
-        <v>935.98341900000003</v>
+        <v>915.35159699999997</v>
       </c>
       <c r="AC66" s="108">
-        <v>1861.7851539999999</v>
+        <v>1831.244228</v>
       </c>
       <c r="AD66" s="108">
-        <v>418.01268299999998</v>
+        <v>580.96236399999998</v>
       </c>
       <c r="AE66" s="107">
-        <v>1860.9666990000001</v>
+        <v>1830.6320290000001</v>
       </c>
       <c r="AF66" s="108">
-        <v>7893.7101910000001</v>
+        <v>7790.0762169999998</v>
       </c>
       <c r="AG66" s="108">
-        <v>3595.6433029999998</v>
+        <v>3567.9397439999998</v>
       </c>
       <c r="AH66" s="109">
-        <v>419.14441799999997</v>
+        <v>581.46688800000004</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" s="88"/>
       <c r="B67" s="96" t="s">
         <v>154</v>
       </c>
       <c r="C67" s="97">
-        <v>171690.55499999999</v>
+        <v>171872.927</v>
       </c>
       <c r="D67" s="98">
-        <v>309.83100000000002</v>
+        <v>309.73</v>
       </c>
       <c r="E67" s="98">
-        <v>3810.3</v>
+        <v>3820.0149999999999</v>
       </c>
       <c r="F67" s="98">
-        <v>9087.6149999999998</v>
+        <v>9124.4030000000002</v>
       </c>
       <c r="G67" s="98">
-        <v>5210.6080000000002</v>
+        <v>5242.5739999999996</v>
       </c>
       <c r="H67" s="98">
-        <v>2426.415</v>
+        <v>2435.386</v>
       </c>
       <c r="I67" s="98">
-        <v>20966.955999999998</v>
+        <v>21082.794999999998</v>
       </c>
       <c r="J67" s="98">
-        <v>79102.456999999995</v>
+        <v>78864.244999999995</v>
       </c>
       <c r="K67" s="98">
-        <v>12538.172</v>
+        <v>12603.736999999999</v>
       </c>
       <c r="L67" s="98">
-        <v>7784.8459999999995</v>
+        <v>7815.6719999999996</v>
       </c>
       <c r="M67" s="98">
-        <v>28195.453000000001</v>
+        <v>28288.643</v>
       </c>
       <c r="N67" s="99">
-        <v>2495.317</v>
+        <v>2523.163</v>
       </c>
       <c r="O67" s="97">
-        <v>171690.55499999999</v>
+        <v>171872.927</v>
       </c>
       <c r="P67" s="98">
-        <v>28195.453000000001</v>
+        <v>28288.643</v>
       </c>
       <c r="Q67" s="98">
-        <v>122818.85</v>
+        <v>122801.83900000001</v>
       </c>
       <c r="R67" s="98">
-        <v>18108.523000000001</v>
+        <v>18186.991999999998</v>
       </c>
       <c r="S67" s="99">
-        <v>2592.8560000000002</v>
+        <v>2620.6010000000001</v>
       </c>
       <c r="T67" s="100">
-        <v>6.4572279999999997</v>
+        <v>6.2347950000000001</v>
       </c>
       <c r="U67" s="101">
-        <v>54.796436999999997</v>
+        <v>51.384388000000001</v>
       </c>
       <c r="V67" s="101">
-        <v>109.10519499999999</v>
+        <v>103.699928</v>
       </c>
       <c r="W67" s="101">
-        <v>61.195191000000001</v>
+        <v>54.742932000000003</v>
       </c>
       <c r="X67" s="101">
-        <v>40.076110999999997</v>
+        <v>36.191586000000001</v>
       </c>
       <c r="Y67" s="101">
-        <v>197.13147000000001</v>
+        <v>188.97176999999999</v>
       </c>
       <c r="Z67" s="101">
-        <v>399.69537300000002</v>
+        <v>391.97013500000003</v>
       </c>
       <c r="AA67" s="101">
-        <v>118.123955</v>
+        <v>114.29801399999999</v>
       </c>
       <c r="AB67" s="101">
-        <v>74.839663999999999</v>
+        <v>70.697061000000005</v>
       </c>
       <c r="AC67" s="101">
-        <v>296.35009200000002</v>
+        <v>289.05695500000002</v>
       </c>
       <c r="AD67" s="101">
-        <v>46.787472000000001</v>
+        <v>97.314820999999995</v>
       </c>
       <c r="AE67" s="100">
-        <v>296.35009200000002</v>
+        <v>289.05695500000002</v>
       </c>
       <c r="AF67" s="101">
-        <v>829.86856599999999</v>
+        <v>802.12680999999998</v>
       </c>
       <c r="AG67" s="101">
-        <v>225.09724800000001</v>
+        <v>209.827674</v>
       </c>
       <c r="AH67" s="102">
-        <v>49.322609999999997</v>
+        <v>99.627527000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" s="88"/>
       <c r="B68" s="96" t="s">
         <v>155</v>
       </c>
       <c r="C68" s="97">
-        <v>104674.109</v>
+        <v>107259.929</v>
       </c>
       <c r="D68" s="98">
-        <v>269.71199999999999</v>
+        <v>278.92899999999997</v>
       </c>
       <c r="E68" s="98">
-        <v>1651.74</v>
+        <v>1800.0989999999999</v>
       </c>
       <c r="F68" s="98">
-        <v>6548.9070000000002</v>
+        <v>6711.8609999999999</v>
       </c>
       <c r="G68" s="98">
-        <v>3273.194</v>
+        <v>3323.5720000000001</v>
       </c>
       <c r="H68" s="98">
-        <v>2492.4630000000002</v>
+        <v>2462.41</v>
       </c>
       <c r="I68" s="98">
-        <v>23421.901999999998</v>
+        <v>23122.108</v>
       </c>
       <c r="J68" s="98">
-        <v>38586.870000000003</v>
+        <v>41456.491000000002</v>
       </c>
       <c r="K68" s="98">
-        <v>14037.615</v>
+        <v>13941.922</v>
       </c>
       <c r="L68" s="98">
-        <v>5952.8310000000001</v>
+        <v>5866.3860000000004</v>
       </c>
       <c r="M68" s="98">
-        <v>6684.94</v>
+        <v>6645.5370000000003</v>
       </c>
       <c r="N68" s="99">
         <v>3504.4059999999999</v>
       </c>
       <c r="O68" s="97">
-        <v>104674.109</v>
+        <v>107259.929</v>
       </c>
       <c r="P68" s="98">
-        <v>6684.94</v>
+        <v>6645.5370000000003</v>
       </c>
       <c r="Q68" s="98">
-        <v>84491.68</v>
+        <v>86849.316999999995</v>
       </c>
       <c r="R68" s="98">
-        <v>11473.841</v>
+        <v>11835.532999999999</v>
       </c>
       <c r="S68" s="99">
-        <v>2023.6489999999999</v>
+        <v>1929.5440000000001</v>
       </c>
       <c r="T68" s="100">
-        <v>8.911054</v>
+        <v>8.9723410000000001</v>
       </c>
       <c r="U68" s="101">
-        <v>27.356386000000001</v>
+        <v>28.728223</v>
       </c>
       <c r="V68" s="101">
-        <v>90.516209000000003</v>
+        <v>91.044264999999996</v>
       </c>
       <c r="W68" s="101">
-        <v>35.237546000000002</v>
+        <v>34.190854000000002</v>
       </c>
       <c r="X68" s="101">
-        <v>28.676563000000002</v>
+        <v>27.842766000000001</v>
       </c>
       <c r="Y68" s="101">
-        <v>292.56206300000002</v>
+        <v>279.10605299999997</v>
       </c>
       <c r="Z68" s="101">
-        <v>531.07571900000005</v>
+        <v>558.76119100000005</v>
       </c>
       <c r="AA68" s="101">
-        <v>152.04738499999999</v>
+        <v>145.944299</v>
       </c>
       <c r="AB68" s="101">
-        <v>62.452069000000002</v>
+        <v>60.085515000000001</v>
       </c>
       <c r="AC68" s="101">
-        <v>164.984713</v>
+        <v>161.096712</v>
       </c>
       <c r="AD68" s="101">
         <v>160.09893</v>
       </c>
       <c r="AE68" s="100">
-        <v>164.984713</v>
+        <v>161.096712</v>
       </c>
       <c r="AF68" s="101">
-        <v>1066.813795</v>
+        <v>1071.739834</v>
       </c>
       <c r="AG68" s="101">
-        <v>153.11002300000001</v>
+        <v>153.96323799999999</v>
       </c>
       <c r="AH68" s="102">
-        <v>115.09193999999999</v>
+        <v>113.20070699999999</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" s="88"/>
       <c r="B69" s="96" t="s">
         <v>156</v>
       </c>
       <c r="C69" s="97">
-        <v>75762.217000000004</v>
+        <v>75940.315000000002</v>
       </c>
       <c r="D69" s="98">
         <v>144.84299999999999</v>
       </c>
       <c r="E69" s="98">
-        <v>1993.9749999999999</v>
+        <v>2005.2760000000001</v>
       </c>
       <c r="F69" s="98">
-        <v>2980.12</v>
+        <v>3019.71</v>
       </c>
       <c r="G69" s="98">
-        <v>2153.8290000000002</v>
+        <v>2189.16</v>
       </c>
       <c r="H69" s="98">
-        <v>433.97300000000001</v>
+        <v>444.88499999999999</v>
       </c>
       <c r="I69" s="98">
-        <v>7843.65</v>
+        <v>7964.0519999999997</v>
       </c>
       <c r="J69" s="98">
-        <v>44868.595000000001</v>
+        <v>44631.375999999997</v>
       </c>
       <c r="K69" s="98">
-        <v>3234.7860000000001</v>
+        <v>3302.6959999999999</v>
       </c>
       <c r="L69" s="98">
-        <v>2348.2950000000001</v>
+        <v>2381.4270000000001</v>
       </c>
       <c r="M69" s="98">
-        <v>9050.143</v>
+        <v>9146.9009999999998</v>
       </c>
       <c r="N69" s="99">
         <v>780.80100000000004</v>
       </c>
       <c r="O69" s="97">
-        <v>75762.217000000004</v>
+        <v>75940.315000000002</v>
       </c>
       <c r="P69" s="98">
-        <v>9050.143</v>
+        <v>9146.9009999999998</v>
       </c>
       <c r="Q69" s="98">
-        <v>58729.3</v>
+        <v>58724.438999999998</v>
       </c>
       <c r="R69" s="98">
-        <v>7127.9229999999998</v>
+        <v>7214.1450000000004</v>
       </c>
       <c r="S69" s="99">
         <v>879.97500000000002</v>
@@ -8726,100 +8723,100 @@
         <v>0.68469500000000005</v>
       </c>
       <c r="U69" s="101">
-        <v>9.8213969999999993</v>
+        <v>10.023287</v>
       </c>
       <c r="V69" s="101">
-        <v>10.601737999999999</v>
+        <v>11.226524</v>
       </c>
       <c r="W69" s="101">
-        <v>6.8846410000000002</v>
+        <v>7.5865919999999996</v>
       </c>
       <c r="X69" s="101">
-        <v>1.957506</v>
+        <v>2.156549</v>
       </c>
       <c r="Y69" s="101">
-        <v>27.672035999999999</v>
+        <v>29.595769000000001</v>
       </c>
       <c r="Z69" s="101">
-        <v>137.977554</v>
+        <v>132.36497299999999</v>
       </c>
       <c r="AA69" s="101">
-        <v>14.222825</v>
+        <v>15.377692</v>
       </c>
       <c r="AB69" s="101">
-        <v>7.7871940000000004</v>
+        <v>8.3859159999999999</v>
       </c>
       <c r="AC69" s="101">
-        <v>81.900852999999998</v>
+        <v>82.108850000000004</v>
       </c>
       <c r="AD69" s="101">
         <v>1.1273310000000001</v>
       </c>
       <c r="AE69" s="100">
-        <v>81.900852999999998</v>
+        <v>82.108850000000004</v>
       </c>
       <c r="AF69" s="101">
-        <v>189.61710099999999</v>
+        <v>187.88092599999999</v>
       </c>
       <c r="AG69" s="101">
-        <v>27.307755</v>
+        <v>28.836382</v>
       </c>
       <c r="AH69" s="102">
         <v>1.8120259999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" s="88"/>
       <c r="B70" s="96" t="s">
         <v>157</v>
       </c>
       <c r="C70" s="97">
-        <v>66097.460000000006</v>
+        <v>66275.558000000005</v>
       </c>
       <c r="D70" s="98">
         <v>275.67500000000001</v>
       </c>
       <c r="E70" s="98">
-        <v>2693.64</v>
+        <v>2704.9409999999998</v>
       </c>
       <c r="F70" s="98">
-        <v>2866.3690000000001</v>
+        <v>2905.9589999999998</v>
       </c>
       <c r="G70" s="98">
-        <v>1679.2809999999999</v>
+        <v>1714.6120000000001</v>
       </c>
       <c r="H70" s="98">
-        <v>588.327</v>
+        <v>599.23900000000003</v>
       </c>
       <c r="I70" s="98">
-        <v>7777.3779999999997</v>
+        <v>7897.78</v>
       </c>
       <c r="J70" s="98">
-        <v>40325.830999999998</v>
+        <v>40088.612000000001</v>
       </c>
       <c r="K70" s="98">
-        <v>3192.357</v>
+        <v>3260.2669999999998</v>
       </c>
       <c r="L70" s="98">
-        <v>1563.9169999999999</v>
+        <v>1597.049</v>
       </c>
       <c r="M70" s="98">
-        <v>4357.835</v>
+        <v>4454.5929999999998</v>
       </c>
       <c r="N70" s="99">
         <v>787.44600000000003</v>
       </c>
       <c r="O70" s="97">
-        <v>66097.460000000006</v>
+        <v>66275.558000000005</v>
       </c>
       <c r="P70" s="98">
-        <v>4357.835</v>
+        <v>4454.5929999999998</v>
       </c>
       <c r="Q70" s="98">
-        <v>53447.809000000001</v>
+        <v>53442.947999999997</v>
       </c>
       <c r="R70" s="98">
-        <v>7239.29</v>
+        <v>7325.5119999999997</v>
       </c>
       <c r="S70" s="99">
         <v>1077.6479999999999</v>
@@ -8828,151 +8825,151 @@
         <v>3.4759120000000001</v>
       </c>
       <c r="U70" s="101">
-        <v>21.947886</v>
+        <v>22.149775999999999</v>
       </c>
       <c r="V70" s="101">
-        <v>26.876843000000001</v>
+        <v>27.501629000000001</v>
       </c>
       <c r="W70" s="101">
-        <v>14.845924999999999</v>
+        <v>15.547876</v>
       </c>
       <c r="X70" s="101">
-        <v>8.1361159999999995</v>
+        <v>8.3351590000000009</v>
       </c>
       <c r="Y70" s="101">
-        <v>96.592878999999996</v>
+        <v>98.516613000000007</v>
       </c>
       <c r="Z70" s="101">
-        <v>274.41742799999997</v>
+        <v>268.804847</v>
       </c>
       <c r="AA70" s="101">
-        <v>48.214444</v>
+        <v>49.369311000000003</v>
       </c>
       <c r="AB70" s="101">
-        <v>19.126825</v>
+        <v>19.725546999999999</v>
       </c>
       <c r="AC70" s="101">
-        <v>78.279013000000006</v>
+        <v>78.487010999999995</v>
       </c>
       <c r="AD70" s="101">
         <v>7.784065</v>
       </c>
       <c r="AE70" s="100">
-        <v>78.279013000000006</v>
+        <v>78.487010999999995</v>
       </c>
       <c r="AF70" s="101">
-        <v>446.48766999999998</v>
+        <v>444.75149499999998</v>
       </c>
       <c r="AG70" s="101">
-        <v>63.670656999999999</v>
+        <v>65.199284000000006</v>
       </c>
       <c r="AH70" s="102">
         <v>12.195622</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" s="88"/>
       <c r="B71" s="96" t="s">
         <v>158</v>
       </c>
       <c r="C71" s="97">
-        <v>65661.341</v>
+        <v>68247.160999999993</v>
       </c>
       <c r="D71" s="98">
-        <v>207.18199999999999</v>
+        <v>216.399</v>
       </c>
       <c r="E71" s="98">
-        <v>487.66399999999999</v>
+        <v>636.02300000000002</v>
       </c>
       <c r="F71" s="98">
-        <v>2256.576</v>
+        <v>2419.5300000000002</v>
       </c>
       <c r="G71" s="98">
-        <v>1150.652</v>
+        <v>1201.03</v>
       </c>
       <c r="H71" s="98">
-        <v>905.96500000000003</v>
+        <v>875.91200000000003</v>
       </c>
       <c r="I71" s="98">
-        <v>16941.652999999998</v>
+        <v>16641.859</v>
       </c>
       <c r="J71" s="98">
-        <v>30042.002</v>
+        <v>32911.623</v>
       </c>
       <c r="K71" s="98">
-        <v>7277.2709999999997</v>
+        <v>7181.5780000000004</v>
       </c>
       <c r="L71" s="98">
-        <v>1774.5609999999999</v>
+        <v>1688.116</v>
       </c>
       <c r="M71" s="98">
-        <v>3953.6619999999998</v>
+        <v>3914.259</v>
       </c>
       <c r="N71" s="99">
         <v>2414.623</v>
       </c>
       <c r="O71" s="97">
-        <v>65661.341</v>
+        <v>68247.160999999993</v>
       </c>
       <c r="P71" s="98">
-        <v>3953.6619999999998</v>
+        <v>3914.259</v>
       </c>
       <c r="Q71" s="98">
-        <v>56941.451000000001</v>
+        <v>59299.088000000003</v>
       </c>
       <c r="R71" s="98">
-        <v>3894.8910000000001</v>
+        <v>4256.5829999999996</v>
       </c>
       <c r="S71" s="99">
-        <v>871.33600000000001</v>
+        <v>777.23099999999999</v>
       </c>
       <c r="T71" s="100">
-        <v>4.4076230000000001</v>
+        <v>4.4689100000000002</v>
       </c>
       <c r="U71" s="101">
-        <v>8.085528</v>
+        <v>9.4573649999999994</v>
       </c>
       <c r="V71" s="101">
-        <v>40.148839000000002</v>
+        <v>40.676895000000002</v>
       </c>
       <c r="W71" s="101">
-        <v>17.810205</v>
+        <v>16.763513</v>
       </c>
       <c r="X71" s="101">
-        <v>11.828087999999999</v>
+        <v>10.994291</v>
       </c>
       <c r="Y71" s="101">
-        <v>228.18388300000001</v>
+        <v>214.72787299999999</v>
       </c>
       <c r="Z71" s="101">
-        <v>400.25519100000002</v>
+        <v>427.94066400000003</v>
       </c>
       <c r="AA71" s="101">
-        <v>99.702205000000006</v>
+        <v>93.599119999999999</v>
       </c>
       <c r="AB71" s="101">
-        <v>29.094881000000001</v>
+        <v>26.728325999999999</v>
       </c>
       <c r="AC71" s="101">
-        <v>92.103035000000006</v>
+        <v>88.215033000000005</v>
       </c>
       <c r="AD71" s="101">
         <v>122.29872</v>
       </c>
       <c r="AE71" s="100">
-        <v>92.103035000000006</v>
+        <v>88.215033000000005</v>
       </c>
       <c r="AF71" s="101">
-        <v>769.06422099999997</v>
+        <v>773.99026000000003</v>
       </c>
       <c r="AG71" s="101">
-        <v>66.044431000000003</v>
+        <v>66.897645999999995</v>
       </c>
       <c r="AH71" s="102">
-        <v>72.788298999999995</v>
+        <v>70.897065999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" s="88"/>
       <c r="B72" s="96" t="s">
         <v>159</v>
@@ -9074,109 +9071,109 @@
         <v>4.9231119999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" s="88"/>
       <c r="B73" s="96" t="s">
         <v>160</v>
       </c>
       <c r="C73" s="97">
-        <v>98462.298999999999</v>
+        <v>99014.642999999996</v>
       </c>
       <c r="D73" s="98">
-        <v>274.93599999999998</v>
+        <v>268.87099999999998</v>
       </c>
       <c r="E73" s="98">
-        <v>2872.4780000000001</v>
+        <v>3041.7669999999998</v>
       </c>
       <c r="F73" s="98">
-        <v>4747.5810000000001</v>
+        <v>4444.9139999999998</v>
       </c>
       <c r="G73" s="98">
-        <v>3480.7629999999999</v>
+        <v>3594.8490000000002</v>
       </c>
       <c r="H73" s="98">
-        <v>2460.8539999999998</v>
+        <v>2468.924</v>
       </c>
       <c r="I73" s="98">
-        <v>12684.338</v>
+        <v>12664.994000000001</v>
       </c>
       <c r="J73" s="98">
-        <v>47945.597999999998</v>
+        <v>48085.148999999998</v>
       </c>
       <c r="K73" s="98">
-        <v>5779.0739999999996</v>
+        <v>5881.5159999999996</v>
       </c>
       <c r="L73" s="98">
-        <v>3441.3739999999998</v>
+        <v>3545.23</v>
       </c>
       <c r="M73" s="98">
-        <v>13747.975</v>
+        <v>13968.61</v>
       </c>
       <c r="N73" s="99">
-        <v>1191.538</v>
+        <v>1214.0730000000001</v>
       </c>
       <c r="O73" s="97">
-        <v>98462.298999999999</v>
+        <v>99014.642999999996</v>
       </c>
       <c r="P73" s="98">
-        <v>13747.975</v>
+        <v>13968.61</v>
       </c>
       <c r="Q73" s="98">
-        <v>72311.240999999995</v>
+        <v>72645.812000000005</v>
       </c>
       <c r="R73" s="98">
-        <v>11100.822</v>
+        <v>11081.531000000001</v>
       </c>
       <c r="S73" s="99">
-        <v>1302.2629999999999</v>
+        <v>1318.691</v>
       </c>
       <c r="T73" s="100">
-        <v>7.579949</v>
+        <v>7.3086270000000004</v>
       </c>
       <c r="U73" s="101">
-        <v>51.287168000000001</v>
+        <v>47.956586000000001</v>
       </c>
       <c r="V73" s="101">
-        <v>89.446854000000002</v>
+        <v>78.623108000000002</v>
       </c>
       <c r="W73" s="101">
-        <v>66.852412999999999</v>
+        <v>60.103949</v>
       </c>
       <c r="X73" s="101">
-        <v>50.369399000000001</v>
+        <v>45.391863999999998</v>
       </c>
       <c r="Y73" s="101">
-        <v>214.60483199999999</v>
+        <v>199.96426600000001</v>
       </c>
       <c r="Z73" s="101">
-        <v>352.66430400000002</v>
+        <v>361.30899199999999</v>
       </c>
       <c r="AA73" s="101">
-        <v>115.391953</v>
+        <v>107.98026299999999</v>
       </c>
       <c r="AB73" s="101">
-        <v>67.932567000000006</v>
+        <v>62.344881000000001</v>
       </c>
       <c r="AC73" s="101">
-        <v>238.150308</v>
+        <v>232.83275800000001</v>
       </c>
       <c r="AD73" s="101">
-        <v>49.634216000000002</v>
+        <v>100.10866799999999</v>
       </c>
       <c r="AE73" s="100">
-        <v>238.150308</v>
+        <v>232.83275800000001</v>
       </c>
       <c r="AF73" s="101">
-        <v>800.96502099999998</v>
+        <v>776.98846200000003</v>
       </c>
       <c r="AG73" s="101">
-        <v>207.586736</v>
+        <v>186.684099</v>
       </c>
       <c r="AH73" s="102">
-        <v>53.298434</v>
+        <v>103.495206</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" s="88"/>
       <c r="B74" s="96" t="s">
         <v>161</v>
@@ -9278,7 +9275,7 @@
         <v>0.37850099999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="88"/>
       <c r="B75" s="96" t="s">
         <v>162</v>
@@ -9380,415 +9377,415 @@
         <v>9.2121390000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" s="88"/>
       <c r="B76" s="116" t="s">
         <v>163</v>
       </c>
       <c r="C76" s="117">
-        <v>315649.79399999999</v>
+        <v>322640.739</v>
       </c>
       <c r="D76" s="118">
-        <v>1058.0540000000001</v>
+        <v>1055.3209999999999</v>
       </c>
       <c r="E76" s="118">
-        <v>7328.4920000000002</v>
+        <v>7360.1530000000002</v>
       </c>
       <c r="F76" s="118">
-        <v>18675.221000000001</v>
+        <v>18598.968000000001</v>
       </c>
       <c r="G76" s="118">
-        <v>10723.769</v>
+        <v>10730.901</v>
       </c>
       <c r="H76" s="118">
-        <v>13629.271000000001</v>
+        <v>13577.271000000001</v>
       </c>
       <c r="I76" s="118">
-        <v>71390.353000000003</v>
+        <v>71482.289999999994</v>
       </c>
       <c r="J76" s="118">
-        <v>65556.625</v>
+        <v>64918.796999999999</v>
       </c>
       <c r="K76" s="118">
-        <v>36264.593999999997</v>
+        <v>36307.207999999999</v>
       </c>
       <c r="L76" s="118">
-        <v>26663.731</v>
+        <v>26847.276000000002</v>
       </c>
       <c r="M76" s="118">
-        <v>62954.838000000003</v>
+        <v>63239.913999999997</v>
       </c>
       <c r="N76" s="119">
-        <v>2467.681</v>
+        <v>9585.4760000000006</v>
       </c>
       <c r="O76" s="117">
-        <v>315649.79399999999</v>
+        <v>322640.739</v>
       </c>
       <c r="P76" s="118">
-        <v>62954.838000000003</v>
+        <v>63239.913999999997</v>
       </c>
       <c r="Q76" s="118">
-        <v>213504.573</v>
+        <v>213132.842</v>
       </c>
       <c r="R76" s="118">
-        <v>36727.483999999997</v>
+        <v>36690.023000000001</v>
       </c>
       <c r="S76" s="119">
-        <v>2462.8989999999999</v>
+        <v>9577.9599999999991</v>
       </c>
       <c r="T76" s="120">
-        <v>4.660444</v>
+        <v>4.6540359999999996</v>
       </c>
       <c r="U76" s="121">
-        <v>36.326165000000003</v>
+        <v>24.888138999999999</v>
       </c>
       <c r="V76" s="121">
-        <v>74.308904999999996</v>
+        <v>54.311461999999999</v>
       </c>
       <c r="W76" s="121">
-        <v>50.094149000000002</v>
+        <v>36.215572000000002</v>
       </c>
       <c r="X76" s="121">
-        <v>43.521483000000003</v>
+        <v>36.894511000000001</v>
       </c>
       <c r="Y76" s="121">
-        <v>159.30739500000001</v>
+        <v>151.27186800000001</v>
       </c>
       <c r="Z76" s="121">
-        <v>141.44753700000001</v>
+        <v>139.797934</v>
       </c>
       <c r="AA76" s="121">
-        <v>90.575126999999995</v>
+        <v>88.801208000000003</v>
       </c>
       <c r="AB76" s="121">
-        <v>58.135106</v>
+        <v>54.379185</v>
       </c>
       <c r="AC76" s="121">
-        <v>134.35439700000001</v>
+        <v>129.953701</v>
       </c>
       <c r="AD76" s="121">
-        <v>8.839302</v>
+        <v>80.402356999999995</v>
       </c>
       <c r="AE76" s="120">
-        <v>134.35439700000001</v>
+        <v>129.953701</v>
       </c>
       <c r="AF76" s="121">
-        <v>492.98706199999998</v>
+        <v>471.14516200000003</v>
       </c>
       <c r="AG76" s="121">
-        <v>160.728759</v>
+        <v>115.41471</v>
       </c>
       <c r="AH76" s="122">
-        <v>11.929781999999999</v>
+        <v>83.486425999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" s="88"/>
       <c r="B77" s="96" t="s">
         <v>164</v>
       </c>
       <c r="C77" s="97">
-        <v>198644.204</v>
+        <v>202144.46</v>
       </c>
       <c r="D77" s="98">
-        <v>1114.24</v>
+        <v>1150.8789999999999</v>
       </c>
       <c r="E77" s="98">
-        <v>7025.848</v>
+        <v>7220.0219999999999</v>
       </c>
       <c r="F77" s="98">
-        <v>23394.6</v>
+        <v>24003.848999999998</v>
       </c>
       <c r="G77" s="98">
-        <v>15013.6</v>
+        <v>15600.272000000001</v>
       </c>
       <c r="H77" s="98">
-        <v>14583.968000000001</v>
+        <v>14820.721</v>
       </c>
       <c r="I77" s="98">
-        <v>45187.862999999998</v>
+        <v>45786.108999999997</v>
       </c>
       <c r="J77" s="98">
-        <v>13696.27</v>
+        <v>13298.184999999999</v>
       </c>
       <c r="K77" s="98">
-        <v>23078.37</v>
+        <v>23435.81</v>
       </c>
       <c r="L77" s="98">
-        <v>19515.222000000002</v>
+        <v>20141.595000000001</v>
       </c>
       <c r="M77" s="98">
-        <v>34513.101999999999</v>
+        <v>34997.394999999997</v>
       </c>
       <c r="N77" s="99">
-        <v>2652.4090000000001</v>
+        <v>2821.7060000000001</v>
       </c>
       <c r="O77" s="97">
-        <v>198644.204</v>
+        <v>202144.46</v>
       </c>
       <c r="P77" s="98">
-        <v>34513.101999999999</v>
+        <v>34997.394999999997</v>
       </c>
       <c r="Q77" s="98">
-        <v>116061.694</v>
+        <v>117482.416</v>
       </c>
       <c r="R77" s="98">
-        <v>45434.044999999998</v>
+        <v>46824.142</v>
       </c>
       <c r="S77" s="99">
-        <v>3688.35</v>
+        <v>3893.498</v>
       </c>
       <c r="T77" s="100">
-        <v>5.337326</v>
+        <v>5.3929029999999996</v>
       </c>
       <c r="U77" s="101">
-        <v>50.292985999999999</v>
+        <v>50.169013</v>
       </c>
       <c r="V77" s="101">
-        <v>142.830623</v>
+        <v>142.137091</v>
       </c>
       <c r="W77" s="101">
-        <v>93.769835999999998</v>
+        <v>93.913925000000006</v>
       </c>
       <c r="X77" s="101">
-        <v>83.940162000000001</v>
+        <v>82.388713999999993</v>
       </c>
       <c r="Y77" s="101">
-        <v>291.73226</v>
+        <v>292.03503899999998</v>
       </c>
       <c r="Z77" s="101">
-        <v>120.643164</v>
+        <v>118.377242</v>
       </c>
       <c r="AA77" s="101">
-        <v>153.31254999999999</v>
+        <v>153.06547800000001</v>
       </c>
       <c r="AB77" s="101">
-        <v>120.63848</v>
+        <v>121.763353</v>
       </c>
       <c r="AC77" s="101">
-        <v>224.64426399999999</v>
+        <v>226.63697099999999</v>
       </c>
       <c r="AD77" s="101">
-        <v>66.930431999999996</v>
+        <v>68.216080000000005</v>
       </c>
       <c r="AE77" s="100">
-        <v>224.64426399999999</v>
+        <v>226.63697099999999</v>
       </c>
       <c r="AF77" s="101">
-        <v>770.26659099999995</v>
+        <v>767.62977100000001</v>
       </c>
       <c r="AG77" s="101">
-        <v>286.893351</v>
+        <v>286.21999399999999</v>
       </c>
       <c r="AH77" s="102">
-        <v>71.740560000000002</v>
+        <v>73.058098000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" s="88"/>
       <c r="B78" s="96" t="s">
         <v>165</v>
       </c>
       <c r="C78" s="97">
-        <v>205539.30600000001</v>
+        <v>203146.61199999999</v>
       </c>
       <c r="D78" s="98">
-        <v>1134.9749999999999</v>
+        <v>1125.954</v>
       </c>
       <c r="E78" s="98">
-        <v>10697.355</v>
+        <v>10337.43</v>
       </c>
       <c r="F78" s="98">
-        <v>45633.184999999998</v>
+        <v>46961.881999999998</v>
       </c>
       <c r="G78" s="98">
-        <v>32727.579000000002</v>
+        <v>32284.763999999999</v>
       </c>
       <c r="H78" s="98">
-        <v>19852.642</v>
+        <v>19903.525000000001</v>
       </c>
       <c r="I78" s="98">
-        <v>32779.099000000002</v>
+        <v>31206.469000000001</v>
       </c>
       <c r="J78" s="98">
-        <v>5941.6689999999999</v>
+        <v>5164.1130000000003</v>
       </c>
       <c r="K78" s="98">
-        <v>23266.391</v>
+        <v>22528.473000000002</v>
       </c>
       <c r="L78" s="98">
-        <v>15260.477000000001</v>
+        <v>14709.156999999999</v>
       </c>
       <c r="M78" s="98">
-        <v>17241.744999999999</v>
+        <v>16756.687000000002</v>
       </c>
       <c r="N78" s="99">
-        <v>1032.711</v>
+        <v>2286.2370000000001</v>
       </c>
       <c r="O78" s="97">
-        <v>205539.30600000001</v>
+        <v>203146.61199999999</v>
       </c>
       <c r="P78" s="98">
-        <v>17241.744999999999</v>
+        <v>16756.687000000002</v>
       </c>
       <c r="Q78" s="98">
-        <v>97100.274999999994</v>
+        <v>93511.736000000004</v>
       </c>
       <c r="R78" s="98">
-        <v>89058.116999999998</v>
+        <v>89584.077000000005</v>
       </c>
       <c r="S78" s="99">
-        <v>2139.1709999999998</v>
+        <v>3352.89</v>
       </c>
       <c r="T78" s="100">
-        <v>14.777174</v>
+        <v>14.583269</v>
       </c>
       <c r="U78" s="101">
-        <v>155.953824</v>
+        <v>157.68539899999999</v>
       </c>
       <c r="V78" s="101">
-        <v>639.65312200000005</v>
+        <v>655.07040700000005</v>
       </c>
       <c r="W78" s="101">
-        <v>388.37472200000002</v>
+        <v>395.53524800000002</v>
       </c>
       <c r="X78" s="101">
-        <v>221.354095</v>
+        <v>227.25929099999999</v>
       </c>
       <c r="Y78" s="101">
-        <v>437.15701899999999</v>
+        <v>422.69206000000003</v>
       </c>
       <c r="Z78" s="101">
-        <v>76.184324000000004</v>
+        <v>67.689688000000004</v>
       </c>
       <c r="AA78" s="101">
-        <v>304.56709899999998</v>
+        <v>298.06016399999999</v>
       </c>
       <c r="AB78" s="101">
-        <v>216.073305</v>
+        <v>204.80629099999999</v>
       </c>
       <c r="AC78" s="101">
-        <v>233.31265200000001</v>
+        <v>227.749707</v>
       </c>
       <c r="AD78" s="101">
-        <v>14.119115000000001</v>
+        <v>31.409679000000001</v>
       </c>
       <c r="AE78" s="100">
-        <v>233.31265200000001</v>
+        <v>227.749707</v>
       </c>
       <c r="AF78" s="101">
-        <v>1255.3358209999999</v>
+        <v>1220.507636</v>
       </c>
       <c r="AG78" s="101">
-        <v>1183.981321</v>
+        <v>1208.2913599999999</v>
       </c>
       <c r="AH78" s="102">
-        <v>27.370317</v>
+        <v>44.068860000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="88"/>
       <c r="B79" s="103" t="s">
         <v>166</v>
       </c>
       <c r="C79" s="104">
-        <v>632888.12300000002</v>
+        <v>632698.44499999995</v>
       </c>
       <c r="D79" s="105">
-        <v>1174.6559999999999</v>
+        <v>1207.146</v>
       </c>
       <c r="E79" s="105">
-        <v>44222.012999999999</v>
+        <v>43963.095999999998</v>
       </c>
       <c r="F79" s="105">
-        <v>128635.367</v>
+        <v>131082.04500000001</v>
       </c>
       <c r="G79" s="105">
-        <v>82399.606</v>
+        <v>82531.520000000004</v>
       </c>
       <c r="H79" s="105">
-        <v>63056.587</v>
+        <v>63100.508999999998</v>
       </c>
       <c r="I79" s="105">
-        <v>108705.626</v>
+        <v>107333.06600000001</v>
       </c>
       <c r="J79" s="105">
-        <v>19306.370999999999</v>
+        <v>18587.732</v>
       </c>
       <c r="K79" s="105">
-        <v>63682.993000000002</v>
+        <v>62922.156999999999</v>
       </c>
       <c r="L79" s="105">
-        <v>45397.887000000002</v>
+        <v>44979.131999999998</v>
       </c>
       <c r="M79" s="105">
-        <v>73186.145999999993</v>
+        <v>72745.971999999994</v>
       </c>
       <c r="N79" s="106">
-        <v>15704.173000000001</v>
+        <v>16871.414000000001</v>
       </c>
       <c r="O79" s="104">
-        <v>632888.12300000002</v>
+        <v>632698.44499999995</v>
       </c>
       <c r="P79" s="105">
-        <v>73168.434999999998</v>
+        <v>72732.146999999997</v>
       </c>
       <c r="Q79" s="105">
-        <v>300245.97499999998</v>
+        <v>297004.68</v>
       </c>
       <c r="R79" s="105">
-        <v>255247.29300000001</v>
+        <v>257566.201</v>
       </c>
       <c r="S79" s="106">
-        <v>16767.492999999999</v>
+        <v>17947.753000000001</v>
       </c>
       <c r="T79" s="107">
-        <v>11.175651</v>
+        <v>11.424918</v>
       </c>
       <c r="U79" s="108">
-        <v>225.42775599999999</v>
+        <v>229.363125</v>
       </c>
       <c r="V79" s="108">
-        <v>828.19033000000002</v>
+        <v>845.88440500000002</v>
       </c>
       <c r="W79" s="108">
-        <v>496.39882999999998</v>
+        <v>502.048047</v>
       </c>
       <c r="X79" s="108">
-        <v>300.68298099999998</v>
+        <v>303.89429699999999</v>
       </c>
       <c r="Y79" s="108">
-        <v>600.04901500000005</v>
+        <v>583.08461199999999</v>
       </c>
       <c r="Z79" s="108">
-        <v>108.04102899999999</v>
+        <v>101.957088</v>
       </c>
       <c r="AA79" s="108">
-        <v>379.83928100000003</v>
+        <v>376.70421399999998</v>
       </c>
       <c r="AB79" s="108">
-        <v>267.44137000000001</v>
+        <v>261.01888000000002</v>
       </c>
       <c r="AC79" s="108">
-        <v>352.521005</v>
+        <v>339.87289600000003</v>
       </c>
       <c r="AD79" s="108">
-        <v>39.978054999999998</v>
+        <v>54.890284999999999</v>
       </c>
       <c r="AE79" s="107">
-        <v>351.70254899999998</v>
+        <v>339.26069699999999</v>
       </c>
       <c r="AF79" s="108">
-        <v>1660.513747</v>
+        <v>1630.2942</v>
       </c>
       <c r="AG79" s="108">
-        <v>1549.5687330000001</v>
+        <v>1576.8324689999999</v>
       </c>
       <c r="AH79" s="109">
-        <v>46.433914000000001</v>
+        <v>61.831702</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" s="88"/>
       <c r="B80" s="116" t="s">
         <v>167</v>
@@ -9890,415 +9887,415 @@
         <v>5.1582039999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" s="88"/>
       <c r="B81" s="96" t="s">
         <v>168</v>
       </c>
       <c r="C81" s="97">
-        <v>144543.82</v>
+        <v>144290.02600000001</v>
       </c>
       <c r="D81" s="98">
-        <v>1117.7919999999999</v>
+        <v>1127.153</v>
       </c>
       <c r="E81" s="98">
-        <v>6208.3310000000001</v>
+        <v>6326.5069999999996</v>
       </c>
       <c r="F81" s="98">
-        <v>29010.638999999999</v>
+        <v>29833.406999999999</v>
       </c>
       <c r="G81" s="98">
-        <v>13590.394</v>
+        <v>13763.257</v>
       </c>
       <c r="H81" s="98">
-        <v>5440.777</v>
+        <v>5438.83</v>
       </c>
       <c r="I81" s="98">
-        <v>27448.041000000001</v>
+        <v>26678.655999999999</v>
       </c>
       <c r="J81" s="98">
-        <v>9681.3619999999992</v>
+        <v>9626.9560000000001</v>
       </c>
       <c r="K81" s="98">
-        <v>18394.559000000001</v>
+        <v>18313.968000000001</v>
       </c>
       <c r="L81" s="98">
-        <v>19006.275000000001</v>
+        <v>18743.47</v>
       </c>
       <c r="M81" s="98">
-        <v>14038.788</v>
+        <v>13830.722</v>
       </c>
       <c r="N81" s="99">
-        <v>1111.1559999999999</v>
+        <v>1111.394</v>
       </c>
       <c r="O81" s="97">
-        <v>144543.82</v>
+        <v>144290.02600000001</v>
       </c>
       <c r="P81" s="98">
-        <v>14038.788</v>
+        <v>13830.722</v>
       </c>
       <c r="Q81" s="98">
-        <v>79971.014999999999</v>
+        <v>78801.879000000001</v>
       </c>
       <c r="R81" s="98">
-        <v>48809.364999999998</v>
+        <v>49923.173000000003</v>
       </c>
       <c r="S81" s="99">
-        <v>1724.6559999999999</v>
+        <v>1734.2550000000001</v>
       </c>
       <c r="T81" s="100">
-        <v>16.094221999999998</v>
+        <v>16.203761</v>
       </c>
       <c r="U81" s="101">
-        <v>56.955275</v>
+        <v>57.091740999999999</v>
       </c>
       <c r="V81" s="101">
-        <v>149.834183</v>
+        <v>151.11054999999999</v>
       </c>
       <c r="W81" s="101">
-        <v>80.320063000000005</v>
+        <v>80.731243000000006</v>
       </c>
       <c r="X81" s="101">
-        <v>55.778125000000003</v>
+        <v>55.734651999999997</v>
       </c>
       <c r="Y81" s="101">
-        <v>207.362054</v>
+        <v>205.079984</v>
       </c>
       <c r="Z81" s="101">
-        <v>135.40004099999999</v>
+        <v>135.82400000000001</v>
       </c>
       <c r="AA81" s="101">
-        <v>131.81158099999999</v>
+        <v>131.42006499999999</v>
       </c>
       <c r="AB81" s="101">
-        <v>113.95011</v>
+        <v>113.337625</v>
       </c>
       <c r="AC81" s="101">
-        <v>134.44316499999999</v>
+        <v>135.41260199999999</v>
       </c>
       <c r="AD81" s="101">
-        <v>22.064990999999999</v>
+        <v>22.067599999999999</v>
       </c>
       <c r="AE81" s="100">
-        <v>134.44316499999999</v>
+        <v>135.41260199999999</v>
       </c>
       <c r="AF81" s="101">
-        <v>644.30238099999997</v>
+        <v>641.39677099999994</v>
       </c>
       <c r="AG81" s="101">
-        <v>287.10907200000003</v>
+        <v>288.933087</v>
       </c>
       <c r="AH81" s="102">
-        <v>34.145398</v>
+        <v>34.257545999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" s="88"/>
       <c r="B82" s="96" t="s">
         <v>169</v>
       </c>
       <c r="C82" s="97">
-        <v>277829.68099999998</v>
+        <v>281145.94300000003</v>
       </c>
       <c r="D82" s="98">
-        <v>659.40200000000004</v>
+        <v>662.55399999999997</v>
       </c>
       <c r="E82" s="98">
-        <v>7446.5150000000003</v>
+        <v>7775.4639999999999</v>
       </c>
       <c r="F82" s="98">
-        <v>13610.261</v>
+        <v>13510.138000000001</v>
       </c>
       <c r="G82" s="98">
-        <v>8529.33</v>
+        <v>8729.125</v>
       </c>
       <c r="H82" s="98">
-        <v>5544.8729999999996</v>
+        <v>5533.8019999999997</v>
       </c>
       <c r="I82" s="98">
-        <v>43096.686999999998</v>
+        <v>42897.951000000001</v>
       </c>
       <c r="J82" s="98">
-        <v>122203.802</v>
+        <v>124975.755</v>
       </c>
       <c r="K82" s="98">
-        <v>23371.295999999998</v>
+        <v>23445.955000000002</v>
       </c>
       <c r="L82" s="98">
-        <v>11700.245999999999</v>
+        <v>11750.789000000001</v>
       </c>
       <c r="M82" s="98">
-        <v>38505.468999999997</v>
+        <v>38783.459000000003</v>
       </c>
       <c r="N82" s="99">
-        <v>5161.4070000000002</v>
+        <v>5183.942</v>
       </c>
       <c r="O82" s="97">
-        <v>277829.68099999998</v>
+        <v>281145.94300000003</v>
       </c>
       <c r="P82" s="98">
-        <v>38505.468999999997</v>
+        <v>38783.459000000003</v>
       </c>
       <c r="Q82" s="98">
-        <v>205916.90599999999</v>
+        <v>208604.253</v>
       </c>
       <c r="R82" s="98">
-        <v>29586.103999999999</v>
+        <v>30014.726999999999</v>
       </c>
       <c r="S82" s="99">
-        <v>3846.3270000000002</v>
+        <v>3768.65</v>
       </c>
       <c r="T82" s="100">
-        <v>14.826317</v>
+        <v>14.616282</v>
       </c>
       <c r="U82" s="101">
-        <v>106.334102</v>
+        <v>104.577247</v>
       </c>
       <c r="V82" s="101">
-        <v>194.412789</v>
+        <v>184.74188599999999</v>
       </c>
       <c r="W82" s="101">
-        <v>115.264871</v>
+        <v>108.171665</v>
       </c>
       <c r="X82" s="101">
-        <v>79.911752000000007</v>
+        <v>74.299464</v>
       </c>
       <c r="Y82" s="101">
-        <v>542.32812100000001</v>
+        <v>516.15527899999995</v>
       </c>
       <c r="Z82" s="101">
-        <v>975.49000699999999</v>
+        <v>1006.207586</v>
       </c>
       <c r="AA82" s="101">
-        <v>292.469943</v>
+        <v>280.11003499999998</v>
       </c>
       <c r="AB82" s="101">
-        <v>144.01386199999999</v>
+        <v>136.658343</v>
       </c>
       <c r="AC82" s="101">
-        <v>511.73147799999998</v>
+        <v>502.733924</v>
       </c>
       <c r="AD82" s="101">
-        <v>180.74641099999999</v>
+        <v>231.22086300000001</v>
       </c>
       <c r="AE82" s="100">
-        <v>511.73147799999998</v>
+        <v>502.733924</v>
       </c>
       <c r="AF82" s="101">
-        <v>2034.215616</v>
+        <v>2013.4289200000001</v>
       </c>
       <c r="AG82" s="101">
-        <v>416.01190200000002</v>
+        <v>397.491105</v>
       </c>
       <c r="AH82" s="102">
-        <v>138.674598</v>
+        <v>186.98013599999999</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="88"/>
       <c r="B83" s="103" t="s">
         <v>170</v>
       </c>
       <c r="C83" s="104">
-        <v>1786193.693</v>
+        <v>1807815.9620000001</v>
       </c>
       <c r="D83" s="105">
-        <v>3928.9810000000002</v>
+        <v>3993.134</v>
       </c>
       <c r="E83" s="105">
-        <v>79629.298999999999</v>
+        <v>79557.142000000007</v>
       </c>
       <c r="F83" s="105">
-        <v>208368.913</v>
+        <v>211968.13099999999</v>
       </c>
       <c r="G83" s="105">
-        <v>127339.463</v>
+        <v>128605.69100000001</v>
       </c>
       <c r="H83" s="105">
-        <v>103614.908</v>
+        <v>104513.242</v>
       </c>
       <c r="I83" s="105">
-        <v>306391.04800000001</v>
+        <v>306973.31900000002</v>
       </c>
       <c r="J83" s="105">
-        <v>323029.75900000002</v>
+        <v>323288.68199999997</v>
       </c>
       <c r="K83" s="105">
-        <v>202515.82</v>
+        <v>203556.948</v>
       </c>
       <c r="L83" s="105">
-        <v>129010.764</v>
+        <v>131530.97</v>
       </c>
       <c r="M83" s="105">
-        <v>294668.56699999998</v>
+        <v>296514.77100000001</v>
       </c>
       <c r="N83" s="106">
-        <v>24546.213</v>
+        <v>34252.226000000002</v>
       </c>
       <c r="O83" s="104">
-        <v>1786243.7890000001</v>
+        <v>1807866.058</v>
       </c>
       <c r="P83" s="105">
-        <v>294668.12599999999</v>
+        <v>296518.21600000001</v>
       </c>
       <c r="Q83" s="105">
-        <v>1064682.3600000001</v>
+        <v>1069968.794</v>
       </c>
       <c r="R83" s="105">
-        <v>415336.63799999998</v>
+        <v>420129.158</v>
       </c>
       <c r="S83" s="106">
-        <v>27194.332999999999</v>
+        <v>36946.036</v>
       </c>
       <c r="T83" s="107">
-        <v>40.17313</v>
+        <v>41.358153000000001</v>
       </c>
       <c r="U83" s="108">
-        <v>495.049464</v>
+        <v>486.50720100000001</v>
       </c>
       <c r="V83" s="108">
-        <v>1472.4108189999999</v>
+        <v>1472.2998600000001</v>
       </c>
       <c r="W83" s="108">
-        <v>914.23269900000003</v>
+        <v>911.89431000000002</v>
       </c>
       <c r="X83" s="108">
-        <v>616.13770599999998</v>
+        <v>609.87744999999995</v>
       </c>
       <c r="Y83" s="108">
-        <v>1692.5172279999999</v>
+        <v>1664.5730249999999</v>
       </c>
       <c r="Z83" s="108">
-        <v>965.37251200000003</v>
+        <v>944.99194199999999</v>
       </c>
       <c r="AA83" s="108">
-        <v>1086.733262</v>
+        <v>1074.864372</v>
       </c>
       <c r="AB83" s="108">
-        <v>673.29239700000005</v>
+        <v>660.62858000000006</v>
       </c>
       <c r="AC83" s="108">
-        <v>1208.72505</v>
+        <v>1186.2122420000001</v>
       </c>
       <c r="AD83" s="108">
-        <v>212.01699300000001</v>
+        <v>324.48961300000002</v>
       </c>
       <c r="AE83" s="107">
-        <v>1207.906594</v>
+        <v>1185.600042</v>
       </c>
       <c r="AF83" s="108">
-        <v>5038.5158380000003</v>
+        <v>4958.5741690000004</v>
       </c>
       <c r="AG83" s="108">
-        <v>2881.2423739999999</v>
+        <v>2870.2355969999999</v>
       </c>
       <c r="AH83" s="109">
-        <v>241.16621799999999</v>
+        <v>355.07100200000002</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" s="88"/>
       <c r="B84" s="116" t="s">
         <v>171</v>
       </c>
       <c r="C84" s="117">
-        <v>115671.08500000001</v>
+        <v>118435.003</v>
       </c>
       <c r="D84" s="118">
-        <v>249.197</v>
+        <v>258.41399999999999</v>
       </c>
       <c r="E84" s="118">
-        <v>1362.673</v>
+        <v>1522.3330000000001</v>
       </c>
       <c r="F84" s="118">
-        <v>3941.4969999999998</v>
+        <v>4144.0410000000002</v>
       </c>
       <c r="G84" s="118">
-        <v>2086.4609999999998</v>
+        <v>2172.17</v>
       </c>
       <c r="H84" s="118">
-        <v>722.274</v>
+        <v>703.13300000000004</v>
       </c>
       <c r="I84" s="118">
-        <v>15287.348</v>
+        <v>15107.956</v>
       </c>
       <c r="J84" s="118">
-        <v>69863.472999999998</v>
+        <v>72495.875</v>
       </c>
       <c r="K84" s="118">
-        <v>6518.4089999999997</v>
+        <v>6490.6260000000002</v>
       </c>
       <c r="L84" s="118">
-        <v>2542.0100000000002</v>
+        <v>2488.6970000000001</v>
       </c>
       <c r="M84" s="118">
-        <v>12377.425999999999</v>
+        <v>12434.781000000001</v>
       </c>
       <c r="N84" s="119">
         <v>2470.8560000000002</v>
       </c>
       <c r="O84" s="117">
-        <v>115671.08500000001</v>
+        <v>118435.003</v>
       </c>
       <c r="P84" s="118">
-        <v>12377.425999999999</v>
+        <v>12434.781000000001</v>
       </c>
       <c r="Q84" s="118">
-        <v>94933.514999999999</v>
+        <v>97286.290999999997</v>
       </c>
       <c r="R84" s="118">
-        <v>7390.63</v>
+        <v>7838.5439999999999</v>
       </c>
       <c r="S84" s="119">
-        <v>994.63900000000001</v>
+        <v>900.53399999999999</v>
       </c>
       <c r="T84" s="120">
-        <v>6.5797280000000002</v>
+        <v>6.6410150000000003</v>
       </c>
       <c r="U84" s="121">
-        <v>18.458929000000001</v>
+        <v>20.032655999999999</v>
       </c>
       <c r="V84" s="121">
-        <v>57.554262999999999</v>
+        <v>58.707104999999999</v>
       </c>
       <c r="W84" s="121">
-        <v>18.885372</v>
+        <v>18.540631000000001</v>
       </c>
       <c r="X84" s="121">
-        <v>10.796859</v>
+        <v>10.162106</v>
       </c>
       <c r="Y84" s="121">
-        <v>192.44228200000001</v>
+        <v>180.91000500000001</v>
       </c>
       <c r="Z84" s="121">
-        <v>556.39399800000001</v>
+        <v>578.46689000000003</v>
       </c>
       <c r="AA84" s="121">
-        <v>91.371086000000005</v>
+        <v>86.422866999999997</v>
       </c>
       <c r="AB84" s="121">
-        <v>31.341047</v>
+        <v>29.573214</v>
       </c>
       <c r="AC84" s="121">
-        <v>212.155801</v>
+        <v>208.475797</v>
       </c>
       <c r="AD84" s="121">
         <v>58.576631999999996</v>
       </c>
       <c r="AE84" s="120">
-        <v>212.155801</v>
+        <v>208.475797</v>
       </c>
       <c r="AF84" s="121">
-        <v>882.34524099999999</v>
+        <v>885.53510500000004</v>
       </c>
       <c r="AG84" s="121">
-        <v>94.898436000000004</v>
+        <v>97.280276999999998</v>
       </c>
       <c r="AH84" s="122">
-        <v>11.238315</v>
+        <v>9.3470820000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" s="88"/>
       <c r="B85" s="123" t="s">
         <v>172</v>
@@ -10400,619 +10397,619 @@
         <v>6.0062319999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" s="88"/>
       <c r="B86" s="96" t="s">
         <v>173</v>
       </c>
       <c r="C86" s="97">
-        <v>122977.469</v>
+        <v>123135.34600000001</v>
       </c>
       <c r="D86" s="98">
-        <v>478.92399999999998</v>
+        <v>479.54300000000001</v>
       </c>
       <c r="E86" s="98">
-        <v>4633.1469999999999</v>
+        <v>4632.1930000000002</v>
       </c>
       <c r="F86" s="98">
-        <v>7861.4549999999999</v>
+        <v>7847.8980000000001</v>
       </c>
       <c r="G86" s="98">
-        <v>4699.6229999999996</v>
+        <v>4704.9579999999996</v>
       </c>
       <c r="H86" s="98">
-        <v>2851.373</v>
+        <v>2848.1880000000001</v>
       </c>
       <c r="I86" s="98">
-        <v>23598.691999999999</v>
+        <v>23589.63</v>
       </c>
       <c r="J86" s="98">
-        <v>42362.59</v>
+        <v>42484.468999999997</v>
       </c>
       <c r="K86" s="98">
-        <v>14985.477000000001</v>
+        <v>14981.050999999999</v>
       </c>
       <c r="L86" s="98">
-        <v>7616.4650000000001</v>
+        <v>7619.8829999999998</v>
       </c>
       <c r="M86" s="98">
-        <v>11833.239</v>
+        <v>11891.089</v>
       </c>
       <c r="N86" s="99">
         <v>2300.8710000000001</v>
       </c>
       <c r="O86" s="97">
-        <v>122977.469</v>
+        <v>123135.34600000001</v>
       </c>
       <c r="P86" s="98">
-        <v>11833.239</v>
+        <v>11891.089</v>
       </c>
       <c r="Q86" s="98">
-        <v>91414.596000000005</v>
+        <v>91523.22</v>
       </c>
       <c r="R86" s="98">
-        <v>17194.224999999999</v>
+        <v>17185.05</v>
       </c>
       <c r="S86" s="99">
-        <v>2535.4090000000001</v>
+        <v>2535.9870000000001</v>
       </c>
       <c r="T86" s="100">
-        <v>8.9704390000000007</v>
+        <v>8.9640950000000004</v>
       </c>
       <c r="U86" s="101">
-        <v>56.824033</v>
+        <v>56.283555999999997</v>
       </c>
       <c r="V86" s="101">
-        <v>100.413219</v>
+        <v>97.469633999999999</v>
       </c>
       <c r="W86" s="101">
-        <v>57.561886999999999</v>
+        <v>57.514778</v>
       </c>
       <c r="X86" s="101">
-        <v>39.797122000000002</v>
+        <v>39.073436000000001</v>
       </c>
       <c r="Y86" s="101">
-        <v>293.389882</v>
+        <v>289.23615100000001</v>
       </c>
       <c r="Z86" s="101">
-        <v>467.59179</v>
+        <v>478.24958900000001</v>
       </c>
       <c r="AA86" s="101">
-        <v>168.13252700000001</v>
+        <v>165.29508300000001</v>
       </c>
       <c r="AB86" s="101">
-        <v>89.054748000000004</v>
+        <v>87.789641000000003</v>
       </c>
       <c r="AC86" s="101">
-        <v>200.59509499999999</v>
+        <v>202.46097499999999</v>
       </c>
       <c r="AD86" s="101">
         <v>120.645151</v>
       </c>
       <c r="AE86" s="100">
-        <v>200.59509499999999</v>
+        <v>202.46097499999999</v>
       </c>
       <c r="AF86" s="101">
-        <v>1057.9659320000001</v>
+        <v>1059.6437960000001</v>
       </c>
       <c r="AG86" s="101">
-        <v>214.79943</v>
+        <v>211.26841400000001</v>
       </c>
       <c r="AH86" s="102">
-        <v>126.635497</v>
+        <v>126.6228</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" s="88"/>
       <c r="B87" s="96" t="s">
         <v>174</v>
       </c>
       <c r="C87" s="97">
-        <v>769363.91299999994</v>
+        <v>780618.78399999999</v>
       </c>
       <c r="D87" s="98">
-        <v>791.54399999999998</v>
+        <v>799.83299999999997</v>
       </c>
       <c r="E87" s="98">
-        <v>23208.632000000001</v>
+        <v>23154.212</v>
       </c>
       <c r="F87" s="98">
-        <v>43596.228999999999</v>
+        <v>44060.841999999997</v>
       </c>
       <c r="G87" s="98">
-        <v>21837.096000000001</v>
+        <v>22301.738000000001</v>
       </c>
       <c r="H87" s="98">
-        <v>18426.093000000001</v>
+        <v>19207.34</v>
       </c>
       <c r="I87" s="98">
-        <v>112853.57799999999</v>
+        <v>114414.04399999999</v>
       </c>
       <c r="J87" s="98">
-        <v>247396.83900000001</v>
+        <v>249539.61499999999</v>
       </c>
       <c r="K87" s="98">
-        <v>91887.475999999995</v>
+        <v>93673.55</v>
       </c>
       <c r="L87" s="98">
-        <v>51895.699000000001</v>
+        <v>54188.330999999998</v>
       </c>
       <c r="M87" s="98">
-        <v>154600.66</v>
+        <v>156409.73499999999</v>
       </c>
       <c r="N87" s="99">
-        <v>5304.6149999999998</v>
+        <v>5304.0929999999998</v>
       </c>
       <c r="O87" s="97">
-        <v>769363.91299999994</v>
+        <v>780618.78399999999</v>
       </c>
       <c r="P87" s="98">
-        <v>154600.66</v>
+        <v>156409.73499999999</v>
       </c>
       <c r="Q87" s="98">
-        <v>522459.68199999997</v>
+        <v>531022.87800000003</v>
       </c>
       <c r="R87" s="98">
-        <v>88641.955000000002</v>
+        <v>89516.790999999997</v>
       </c>
       <c r="S87" s="99">
-        <v>5703.3720000000003</v>
+        <v>5711.1390000000001</v>
       </c>
       <c r="T87" s="100">
-        <v>5.2495079999999996</v>
+        <v>5.5293559999999999</v>
       </c>
       <c r="U87" s="101">
-        <v>43.238751000000001</v>
+        <v>44.245069999999998</v>
       </c>
       <c r="V87" s="101">
-        <v>115.901704</v>
+        <v>116.32861200000001</v>
       </c>
       <c r="W87" s="101">
-        <v>64.472925000000004</v>
+        <v>66.314937</v>
       </c>
       <c r="X87" s="101">
-        <v>45.474915000000003</v>
+        <v>44.734676</v>
       </c>
       <c r="Y87" s="101">
-        <v>307.77166399999999</v>
+        <v>307.550251</v>
       </c>
       <c r="Z87" s="101">
-        <v>403.19811900000002</v>
+        <v>399.58657899999997</v>
       </c>
       <c r="AA87" s="101">
-        <v>212.01172600000001</v>
+        <v>214.567556</v>
       </c>
       <c r="AB87" s="101">
-        <v>114.248446</v>
+        <v>115.478222</v>
       </c>
       <c r="AC87" s="101">
-        <v>263.121264</v>
+        <v>260.506934</v>
       </c>
       <c r="AD87" s="101">
-        <v>27.834768</v>
+        <v>27.681352</v>
       </c>
       <c r="AE87" s="100">
-        <v>263.121264</v>
+        <v>260.506934</v>
       </c>
       <c r="AF87" s="101">
-        <v>1082.703278</v>
+        <v>1081.915966</v>
       </c>
       <c r="AG87" s="101">
-        <v>223.61330899999999</v>
+        <v>226.888575</v>
       </c>
       <c r="AH87" s="102">
-        <v>31.876355</v>
+        <v>32.002788000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="88"/>
       <c r="B88" s="96" t="s">
         <v>175</v>
       </c>
       <c r="C88" s="97">
-        <v>18162.522000000001</v>
+        <v>18552.715</v>
       </c>
       <c r="D88" s="98">
-        <v>33.426000000000002</v>
+        <v>26.843</v>
       </c>
       <c r="E88" s="98">
-        <v>1406.701</v>
+        <v>1578.53</v>
       </c>
       <c r="F88" s="98">
-        <v>1462.9179999999999</v>
+        <v>1176.6099999999999</v>
       </c>
       <c r="G88" s="98">
-        <v>1600.896</v>
+        <v>1713.0119999999999</v>
       </c>
       <c r="H88" s="98">
-        <v>1896.442</v>
+        <v>1909.6379999999999</v>
       </c>
       <c r="I88" s="98">
-        <v>3016.7640000000001</v>
+        <v>3011.0450000000001</v>
       </c>
       <c r="J88" s="98">
-        <v>208.65799999999999</v>
+        <v>227.32300000000001</v>
       </c>
       <c r="K88" s="98">
-        <v>1858.3209999999999</v>
+        <v>1967.5340000000001</v>
       </c>
       <c r="L88" s="98">
-        <v>1408.2149999999999</v>
+        <v>1510.9590000000001</v>
       </c>
       <c r="M88" s="98">
-        <v>5106.08</v>
+        <v>5272.433</v>
       </c>
       <c r="N88" s="99">
-        <v>168.78200000000001</v>
+        <v>163.471</v>
       </c>
       <c r="O88" s="97">
-        <v>18162.522000000001</v>
+        <v>18552.715</v>
       </c>
       <c r="P88" s="98">
-        <v>5106.08</v>
+        <v>5272.433</v>
       </c>
       <c r="Q88" s="98">
-        <v>8388.4009999999998</v>
+        <v>8626.4979999999996</v>
       </c>
       <c r="R88" s="98">
-        <v>4470.5150000000003</v>
+        <v>4468.152</v>
       </c>
       <c r="S88" s="99">
-        <v>197.52600000000001</v>
+        <v>185.631</v>
       </c>
       <c r="T88" s="100">
-        <v>0.56247000000000003</v>
+        <v>0.51992499999999997</v>
       </c>
       <c r="U88" s="101">
-        <v>22.595320000000001</v>
+        <v>23.419153999999999</v>
       </c>
       <c r="V88" s="101">
-        <v>28.397648</v>
+        <v>26.547540000000001</v>
       </c>
       <c r="W88" s="101">
-        <v>27.469007999999999</v>
+        <v>27.921862000000001</v>
       </c>
       <c r="X88" s="101">
-        <v>23.496632999999999</v>
+        <v>23.326352</v>
       </c>
       <c r="Y88" s="101">
-        <v>57.310625999999999</v>
+        <v>56.907223999999999</v>
       </c>
       <c r="Z88" s="101">
-        <v>18.014990000000001</v>
+        <v>18.114536000000001</v>
       </c>
       <c r="AA88" s="101">
-        <v>34.273822000000003</v>
+        <v>34.680383999999997</v>
       </c>
       <c r="AB88" s="101">
-        <v>19.617602999999999</v>
+        <v>20.036349000000001</v>
       </c>
       <c r="AC88" s="101">
-        <v>66.260294999999999</v>
+        <v>66.578000000000003</v>
       </c>
       <c r="AD88" s="101">
-        <v>2.0012720000000002</v>
+        <v>1.9483740000000001</v>
       </c>
       <c r="AE88" s="100">
-        <v>66.260294999999999</v>
+        <v>66.578000000000003</v>
       </c>
       <c r="AF88" s="101">
-        <v>152.713807</v>
+        <v>153.064964</v>
       </c>
       <c r="AG88" s="101">
-        <v>78.461976000000007</v>
+        <v>77.888555999999994</v>
       </c>
       <c r="AH88" s="102">
-        <v>2.5637470000000002</v>
+        <v>2.468299</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="88"/>
       <c r="B89" s="96" t="s">
         <v>176</v>
       </c>
       <c r="C89" s="97">
-        <v>516895.2</v>
+        <v>521496.83299999998</v>
       </c>
       <c r="D89" s="98">
-        <v>2698.3429999999998</v>
+        <v>2737.297</v>
       </c>
       <c r="E89" s="98">
-        <v>17048.472000000002</v>
+        <v>17395.382000000001</v>
       </c>
       <c r="F89" s="98">
-        <v>50391.807000000001</v>
+        <v>51198.538</v>
       </c>
       <c r="G89" s="98">
-        <v>31912.675999999999</v>
+        <v>32612.757000000001</v>
       </c>
       <c r="H89" s="98">
-        <v>29186.23</v>
+        <v>29495.710999999999</v>
       </c>
       <c r="I89" s="98">
-        <v>112143.554</v>
+        <v>112751.064</v>
       </c>
       <c r="J89" s="98">
-        <v>67515.959000000003</v>
+        <v>66531.820000000007</v>
       </c>
       <c r="K89" s="98">
-        <v>65925.233999999997</v>
+        <v>66082.337</v>
       </c>
       <c r="L89" s="98">
-        <v>45357.32</v>
+        <v>46271.712</v>
       </c>
       <c r="M89" s="98">
-        <v>92689.4</v>
+        <v>92952.773000000001</v>
       </c>
       <c r="N89" s="99">
-        <v>3279.915</v>
+        <v>4719.87</v>
       </c>
       <c r="O89" s="97">
-        <v>516945.29599999997</v>
+        <v>521546.929</v>
       </c>
       <c r="P89" s="98">
-        <v>92706.67</v>
+        <v>92970.043000000005</v>
       </c>
       <c r="Q89" s="98">
-        <v>320151.84999999998</v>
+        <v>321156.19</v>
       </c>
       <c r="R89" s="98">
-        <v>99361.614000000001</v>
+        <v>101215.338</v>
       </c>
       <c r="S89" s="99">
-        <v>4727.0190000000002</v>
+        <v>6206.9129999999996</v>
       </c>
       <c r="T89" s="100">
-        <v>25.364488999999999</v>
+        <v>25.474639</v>
       </c>
       <c r="U89" s="101">
-        <v>169.633127</v>
+        <v>169.662453</v>
       </c>
       <c r="V89" s="101">
-        <v>427.773303</v>
+        <v>428.69619599999999</v>
       </c>
       <c r="W89" s="101">
-        <v>274.21382599999998</v>
+        <v>274.97713199999998</v>
       </c>
       <c r="X89" s="101">
-        <v>208.09571500000001</v>
+        <v>206.136034</v>
       </c>
       <c r="Y89" s="101">
-        <v>683.65727600000002</v>
+        <v>679.53281800000002</v>
       </c>
       <c r="Z89" s="101">
-        <v>501.37863599999997</v>
+        <v>494.02344599999998</v>
       </c>
       <c r="AA89" s="101">
-        <v>460.26901700000002</v>
+        <v>453.401635</v>
       </c>
       <c r="AB89" s="101">
-        <v>282.559146</v>
+        <v>282.38510300000002</v>
       </c>
       <c r="AC89" s="101">
-        <v>549.59411599999999</v>
+        <v>543.29662499999995</v>
       </c>
       <c r="AD89" s="101">
-        <v>30.764786999999998</v>
+        <v>55.739826999999998</v>
       </c>
       <c r="AE89" s="100">
-        <v>549.59411599999999</v>
+        <v>543.29662499999995</v>
       </c>
       <c r="AF89" s="101">
-        <v>2135.9633650000001</v>
+        <v>2115.483131</v>
       </c>
       <c r="AG89" s="101">
-        <v>871.61836700000003</v>
+        <v>873.33371299999999</v>
       </c>
       <c r="AH89" s="102">
-        <v>48.620770999999998</v>
+        <v>73.715321000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="88"/>
       <c r="B90" s="103" t="s">
         <v>177</v>
       </c>
       <c r="C90" s="104">
-        <v>622269.35900000005</v>
+        <v>627785.60400000005</v>
       </c>
       <c r="D90" s="105">
-        <v>1230.72</v>
+        <v>1256.8900000000001</v>
       </c>
       <c r="E90" s="105">
-        <v>44857.466</v>
+        <v>44609.409</v>
       </c>
       <c r="F90" s="105">
-        <v>140724.076</v>
+        <v>143871.916</v>
       </c>
       <c r="G90" s="105">
-        <v>87092.95</v>
+        <v>87363.952999999994</v>
       </c>
       <c r="H90" s="105">
-        <v>60455.307999999997</v>
+        <v>60259.025999999998</v>
       </c>
       <c r="I90" s="105">
-        <v>102634.807</v>
+        <v>100275.15399999999</v>
       </c>
       <c r="J90" s="105">
-        <v>13024.466</v>
+        <v>12069.352999999999</v>
       </c>
       <c r="K90" s="105">
-        <v>62359.421000000002</v>
+        <v>61374.436000000002</v>
       </c>
       <c r="L90" s="105">
-        <v>46513.699000000001</v>
+        <v>45561.77</v>
       </c>
       <c r="M90" s="105">
-        <v>60349.722999999998</v>
+        <v>59911.845000000001</v>
       </c>
       <c r="N90" s="106">
-        <v>16692.8</v>
+        <v>24987.464</v>
       </c>
       <c r="O90" s="104">
-        <v>622269.35900000005</v>
+        <v>627785.60400000005</v>
       </c>
       <c r="P90" s="105">
-        <v>60332.012000000002</v>
+        <v>59898.02</v>
       </c>
       <c r="Q90" s="105">
-        <v>285084.21399999998</v>
+        <v>279621.826</v>
       </c>
       <c r="R90" s="105">
-        <v>272664.799</v>
+        <v>275834.81400000001</v>
       </c>
       <c r="S90" s="106">
-        <v>17782.393</v>
+        <v>26083.778999999999</v>
       </c>
       <c r="T90" s="107">
-        <v>22.620837000000002</v>
+        <v>23.302968</v>
       </c>
       <c r="U90" s="108">
-        <v>342.72103600000003</v>
+        <v>329.66565400000002</v>
       </c>
       <c r="V90" s="108">
-        <v>1069.8525340000001</v>
+        <v>1063.6380879999999</v>
       </c>
       <c r="W90" s="108">
-        <v>667.96214399999997</v>
+        <v>656.27540699999997</v>
       </c>
       <c r="X90" s="108">
-        <v>418.60363999999998</v>
+        <v>410.91626300000001</v>
       </c>
       <c r="Y90" s="108">
-        <v>883.65347999999994</v>
+        <v>847.68964700000004</v>
       </c>
       <c r="Z90" s="108">
-        <v>144.920389</v>
+        <v>133.817849</v>
       </c>
       <c r="AA90" s="108">
-        <v>545.80955300000005</v>
+        <v>532.87989200000004</v>
       </c>
       <c r="AB90" s="108">
-        <v>366.05207000000001</v>
+        <v>346.97870899999998</v>
       </c>
       <c r="AC90" s="108">
-        <v>529.92547500000001</v>
+        <v>509.79279000000002</v>
       </c>
       <c r="AD90" s="108">
-        <v>172.72471100000001</v>
+        <v>310.905665</v>
       </c>
       <c r="AE90" s="107">
-        <v>529.10702000000003</v>
+        <v>509.18059</v>
       </c>
       <c r="AF90" s="108">
-        <v>2363.5023259999998</v>
+        <v>2275.9170119999999</v>
       </c>
       <c r="AG90" s="108">
-        <v>2080.0866179999998</v>
+        <v>2049.115041</v>
       </c>
       <c r="AH90" s="109">
-        <v>189.02425500000001</v>
+        <v>328.12511999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="88"/>
       <c r="B91" s="116" t="s">
         <v>178</v>
       </c>
       <c r="C91" s="117">
-        <v>186151.43</v>
+        <v>189073.22500000001</v>
       </c>
       <c r="D91" s="118">
-        <v>535.33900000000006</v>
+        <v>545.17499999999995</v>
       </c>
       <c r="E91" s="118">
-        <v>2041.895</v>
+        <v>2200.6010000000001</v>
       </c>
       <c r="F91" s="118">
-        <v>6299.2110000000002</v>
+        <v>6488.1980000000003</v>
       </c>
       <c r="G91" s="118">
-        <v>3299.2260000000001</v>
+        <v>3390.27</v>
       </c>
       <c r="H91" s="118">
-        <v>1284.6559999999999</v>
+        <v>1262.33</v>
       </c>
       <c r="I91" s="118">
-        <v>27820.41</v>
+        <v>27631.955999999998</v>
       </c>
       <c r="J91" s="118">
-        <v>103596.595</v>
+        <v>106350.876</v>
       </c>
       <c r="K91" s="118">
-        <v>10848.403</v>
+        <v>10816.194</v>
       </c>
       <c r="L91" s="118">
-        <v>4425.2560000000003</v>
+        <v>4375.3609999999999</v>
       </c>
       <c r="M91" s="118">
-        <v>24498.563999999998</v>
+        <v>24613.769</v>
       </c>
       <c r="N91" s="119">
         <v>3425.2489999999998</v>
       </c>
       <c r="O91" s="117">
-        <v>186151.43</v>
+        <v>189073.22500000001</v>
       </c>
       <c r="P91" s="118">
-        <v>24498.563999999998</v>
+        <v>24613.769</v>
       </c>
       <c r="Q91" s="118">
-        <v>147975.32199999999</v>
+        <v>150436.72200000001</v>
       </c>
       <c r="R91" s="118">
-        <v>11640.33</v>
+        <v>12079.069</v>
       </c>
       <c r="S91" s="119">
-        <v>2062.3380000000002</v>
+        <v>1968.8109999999999</v>
       </c>
       <c r="T91" s="120">
-        <v>11.310453000000001</v>
+        <v>11.365394999999999</v>
       </c>
       <c r="U91" s="121">
-        <v>27.371625000000002</v>
+        <v>28.404875000000001</v>
       </c>
       <c r="V91" s="121">
-        <v>90.047066999999998</v>
+        <v>88.256324000000006</v>
       </c>
       <c r="W91" s="121">
-        <v>33.778624000000001</v>
+        <v>33.386774000000003</v>
       </c>
       <c r="X91" s="121">
-        <v>21.980504</v>
+        <v>20.622066</v>
       </c>
       <c r="Y91" s="121">
-        <v>305.67086899999998</v>
+        <v>289.98486200000002</v>
       </c>
       <c r="Z91" s="121">
-        <v>804.67138899999998</v>
+        <v>837.40207999999996</v>
       </c>
       <c r="AA91" s="121">
-        <v>143.39444900000001</v>
+        <v>135.60878600000001</v>
       </c>
       <c r="AB91" s="121">
-        <v>57.372159000000003</v>
+        <v>54.339219</v>
       </c>
       <c r="AC91" s="121">
-        <v>303.382904</v>
+        <v>301.56877900000001</v>
       </c>
       <c r="AD91" s="121">
         <v>159.28635700000001</v>
       </c>
       <c r="AE91" s="120">
-        <v>303.382904</v>
+        <v>301.56877900000001</v>
       </c>
       <c r="AF91" s="121">
-        <v>1333.0891959999999</v>
+        <v>1337.9569240000001</v>
       </c>
       <c r="AG91" s="121">
-        <v>151.197033</v>
+        <v>150.04785799999999</v>
       </c>
       <c r="AH91" s="122">
-        <v>112.968887</v>
+        <v>111.06495700000001</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="88"/>
       <c r="B92" s="96" t="s">
         <v>179</v>
@@ -11114,517 +11111,517 @@
         <v>28.083089000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="88"/>
       <c r="B93" s="96" t="s">
         <v>180</v>
       </c>
       <c r="C93" s="97">
-        <v>1598.742</v>
+        <v>1603.0160000000001</v>
       </c>
       <c r="D93" s="98">
-        <v>11.16</v>
+        <v>11.058999999999999</v>
       </c>
       <c r="E93" s="98">
-        <v>42.215000000000003</v>
+        <v>40.628999999999998</v>
       </c>
       <c r="F93" s="98">
-        <v>118.92400000000001</v>
+        <v>116.122</v>
       </c>
       <c r="G93" s="98">
-        <v>87.915000000000006</v>
+        <v>84.55</v>
       </c>
       <c r="H93" s="98">
-        <v>76.081999999999994</v>
+        <v>74.141000000000005</v>
       </c>
       <c r="I93" s="98">
-        <v>279.12400000000002</v>
+        <v>274.56099999999998</v>
       </c>
       <c r="J93" s="98">
-        <v>379.88299999999998</v>
+        <v>378.89</v>
       </c>
       <c r="K93" s="98">
-        <v>147.37799999999999</v>
+        <v>145.03299999999999</v>
       </c>
       <c r="L93" s="98">
-        <v>67.292000000000002</v>
+        <v>64.986000000000004</v>
       </c>
       <c r="M93" s="98">
-        <v>300.79300000000001</v>
+        <v>297.22500000000002</v>
       </c>
       <c r="N93" s="99">
-        <v>371.76299999999998</v>
+        <v>399.60899999999998</v>
       </c>
       <c r="O93" s="97">
-        <v>1598.742</v>
+        <v>1603.0160000000001</v>
       </c>
       <c r="P93" s="98">
-        <v>300.79300000000001</v>
+        <v>297.22500000000002</v>
       </c>
       <c r="Q93" s="98">
-        <v>949.76</v>
+        <v>937.61</v>
       </c>
       <c r="R93" s="98">
-        <v>249.053</v>
+        <v>241.3</v>
       </c>
       <c r="S93" s="99">
-        <v>99.135000000000005</v>
+        <v>126.88</v>
       </c>
       <c r="T93" s="100">
-        <v>2.9081600000000001</v>
+        <v>2.685727</v>
       </c>
       <c r="U93" s="101">
-        <v>17.568498999999999</v>
+        <v>13.954560000000001</v>
       </c>
       <c r="V93" s="101">
-        <v>41.954276</v>
+        <v>35.924224000000002</v>
       </c>
       <c r="W93" s="101">
-        <v>34.707394999999998</v>
+        <v>27.553184999999999</v>
       </c>
       <c r="X93" s="101">
-        <v>24.877967000000002</v>
+        <v>20.794398999999999</v>
       </c>
       <c r="Y93" s="101">
-        <v>103.41758299999999</v>
+        <v>93.334151000000006</v>
       </c>
       <c r="Z93" s="101">
-        <v>86.248340999999996</v>
+        <v>84.135683999999998</v>
       </c>
       <c r="AA93" s="101">
-        <v>49.655230000000003</v>
+        <v>44.674422</v>
       </c>
       <c r="AB93" s="101">
-        <v>25.810734</v>
+        <v>21.069410000000001</v>
       </c>
       <c r="AC93" s="101">
-        <v>73.328699999999998</v>
+        <v>65.827565000000007</v>
       </c>
       <c r="AD93" s="101">
-        <v>92.421609000000004</v>
+        <v>142.948958</v>
       </c>
       <c r="AE93" s="100">
-        <v>73.328699999999998</v>
+        <v>65.827565000000007</v>
       </c>
       <c r="AF93" s="101">
-        <v>290.01182699999998</v>
+        <v>264.00624699999997</v>
       </c>
       <c r="AG93" s="101">
-        <v>94.230029999999999</v>
+        <v>77.431828999999993</v>
       </c>
       <c r="AH93" s="102">
-        <v>42.424897000000001</v>
+        <v>92.729814000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="88"/>
       <c r="B94" s="96" t="s">
         <v>181</v>
       </c>
       <c r="C94" s="97">
-        <v>15221.517</v>
+        <v>22482.707999999999</v>
       </c>
       <c r="D94" s="98">
-        <v>70.709999999999994</v>
+        <v>66.147999999999996</v>
       </c>
       <c r="E94" s="98">
-        <v>830.63199999999995</v>
+        <v>855.53399999999999</v>
       </c>
       <c r="F94" s="98">
-        <v>1769.3420000000001</v>
+        <v>1682.491</v>
       </c>
       <c r="G94" s="98">
-        <v>1152.8389999999999</v>
+        <v>1105.1310000000001</v>
       </c>
       <c r="H94" s="98">
-        <v>972.298</v>
+        <v>911.61900000000003</v>
       </c>
       <c r="I94" s="98">
-        <v>3253.5149999999999</v>
+        <v>2945.183</v>
       </c>
       <c r="J94" s="98">
-        <v>2334.3679999999999</v>
+        <v>2284.7269999999999</v>
       </c>
       <c r="K94" s="98">
-        <v>1500.7090000000001</v>
+        <v>1316.0640000000001</v>
       </c>
       <c r="L94" s="98">
-        <v>1003.502</v>
+        <v>896.98699999999997</v>
       </c>
       <c r="M94" s="98">
-        <v>2145.6419999999998</v>
+        <v>1916.1759999999999</v>
       </c>
       <c r="N94" s="99">
-        <v>190.27600000000001</v>
+        <v>8503.4639999999999</v>
       </c>
       <c r="O94" s="97">
-        <v>15271.612999999999</v>
+        <v>22532.804</v>
       </c>
       <c r="P94" s="98">
-        <v>2162.9119999999998</v>
+        <v>1933.4459999999999</v>
       </c>
       <c r="Q94" s="98">
-        <v>9087.9410000000007</v>
+        <v>8378.1309999999994</v>
       </c>
       <c r="R94" s="98">
-        <v>3761.4720000000002</v>
+        <v>3651.8130000000001</v>
       </c>
       <c r="S94" s="99">
-        <v>259.38499999999999</v>
+        <v>8569.6149999999998</v>
       </c>
       <c r="T94" s="100">
-        <v>13.58151</v>
+        <v>13.463156</v>
       </c>
       <c r="U94" s="101">
-        <v>141.54389800000001</v>
+        <v>130.174948</v>
       </c>
       <c r="V94" s="101">
-        <v>226.04913199999999</v>
+        <v>206.590002</v>
       </c>
       <c r="W94" s="101">
-        <v>174.46213599999999</v>
+        <v>161.56015099999999</v>
       </c>
       <c r="X94" s="101">
-        <v>139.84587300000001</v>
+        <v>131.86168699999999</v>
       </c>
       <c r="Y94" s="101">
-        <v>400.30478900000003</v>
+        <v>389.44483500000001</v>
       </c>
       <c r="Z94" s="101">
-        <v>239.13597300000001</v>
+        <v>233.91124199999999</v>
       </c>
       <c r="AA94" s="101">
-        <v>241.467398</v>
+        <v>234.360533</v>
       </c>
       <c r="AB94" s="101">
-        <v>111.109521</v>
+        <v>105.13357999999999</v>
       </c>
       <c r="AC94" s="101">
-        <v>313.06531100000001</v>
+        <v>299.20928800000002</v>
       </c>
       <c r="AD94" s="101">
-        <v>108.181331</v>
+        <v>203.03465600000001</v>
       </c>
       <c r="AE94" s="100">
-        <v>313.06531100000001</v>
+        <v>299.20928800000002</v>
       </c>
       <c r="AF94" s="101">
-        <v>1131.866356</v>
+        <v>1094.7154849999999</v>
       </c>
       <c r="AG94" s="101">
-        <v>542.05310799999995</v>
+        <v>498.32271600000001</v>
       </c>
       <c r="AH94" s="102">
-        <v>119.020799</v>
+        <v>213.790167</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="88"/>
       <c r="B95" s="96" t="s">
         <v>182</v>
       </c>
       <c r="C95" s="97">
-        <v>104105.02499999999</v>
+        <v>107026.82</v>
       </c>
       <c r="D95" s="98">
-        <v>242.91499999999999</v>
+        <v>252.751</v>
       </c>
       <c r="E95" s="98">
-        <v>873.57600000000002</v>
+        <v>1032.2819999999999</v>
       </c>
       <c r="F95" s="98">
-        <v>3129.299</v>
+        <v>3318.2860000000001</v>
       </c>
       <c r="G95" s="98">
-        <v>1629.0150000000001</v>
+        <v>1720.059</v>
       </c>
       <c r="H95" s="98">
-        <v>712.73500000000001</v>
+        <v>690.40899999999999</v>
       </c>
       <c r="I95" s="98">
-        <v>15018.402</v>
+        <v>14829.948</v>
       </c>
       <c r="J95" s="98">
-        <v>57052.394999999997</v>
+        <v>59806.675999999999</v>
       </c>
       <c r="K95" s="98">
-        <v>5460.2259999999997</v>
+        <v>5428.0169999999998</v>
       </c>
       <c r="L95" s="98">
-        <v>2379.143</v>
+        <v>2329.248</v>
       </c>
       <c r="M95" s="98">
-        <v>16883.974999999999</v>
+        <v>16999.18</v>
       </c>
       <c r="N95" s="99">
         <v>913.26300000000003</v>
       </c>
       <c r="O95" s="97">
-        <v>104105.02499999999</v>
+        <v>107026.82</v>
       </c>
       <c r="P95" s="98">
-        <v>16883.974999999999</v>
+        <v>16999.18</v>
       </c>
       <c r="Q95" s="98">
-        <v>80622.902000000002</v>
+        <v>83084.301999999996</v>
       </c>
       <c r="R95" s="98">
-        <v>5631.89</v>
+        <v>6070.6289999999999</v>
       </c>
       <c r="S95" s="99">
-        <v>991.38</v>
+        <v>897.85299999999995</v>
       </c>
       <c r="T95" s="100">
-        <v>3.9884550000000001</v>
+        <v>4.0433979999999998</v>
       </c>
       <c r="U95" s="101">
-        <v>23.805025000000001</v>
+        <v>24.838276</v>
       </c>
       <c r="V95" s="101">
-        <v>56.365760999999999</v>
+        <v>54.575018</v>
       </c>
       <c r="W95" s="101">
-        <v>29.610033000000001</v>
+        <v>29.218183</v>
       </c>
       <c r="X95" s="101">
-        <v>16.250177000000001</v>
+        <v>14.891738999999999</v>
       </c>
       <c r="Y95" s="101">
-        <v>199.51802599999999</v>
+        <v>183.832019</v>
       </c>
       <c r="Z95" s="101">
-        <v>532.73472400000003</v>
+        <v>565.46541400000001</v>
       </c>
       <c r="AA95" s="101">
-        <v>88.686417000000006</v>
+        <v>80.900755000000004</v>
       </c>
       <c r="AB95" s="101">
-        <v>42.555252000000003</v>
+        <v>39.522311999999999</v>
       </c>
       <c r="AC95" s="101">
-        <v>198.354668</v>
+        <v>196.54054300000001</v>
       </c>
       <c r="AD95" s="101">
         <v>12.762446000000001</v>
       </c>
       <c r="AE95" s="100">
-        <v>198.354668</v>
+        <v>196.54054300000001</v>
       </c>
       <c r="AF95" s="101">
-        <v>879.74456999999995</v>
+        <v>884.61229700000001</v>
       </c>
       <c r="AG95" s="101">
-        <v>109.78111199999999</v>
+        <v>108.63193800000001</v>
       </c>
       <c r="AH95" s="102">
-        <v>12.757636</v>
+        <v>10.853706000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="88"/>
       <c r="B96" s="103" t="s">
         <v>183</v>
       </c>
       <c r="C96" s="104">
-        <v>27172.603999999999</v>
+        <v>27082.723000000002</v>
       </c>
       <c r="D96" s="105">
-        <v>277.541</v>
+        <v>275.59300000000002</v>
       </c>
       <c r="E96" s="105">
-        <v>813.63800000000003</v>
+        <v>800.98800000000006</v>
       </c>
       <c r="F96" s="105">
-        <v>2452.8560000000002</v>
+        <v>2425.6480000000001</v>
       </c>
       <c r="G96" s="105">
-        <v>1366.8420000000001</v>
+        <v>1329.03</v>
       </c>
       <c r="H96" s="105">
-        <v>593.80100000000004</v>
+        <v>622.41600000000005</v>
       </c>
       <c r="I96" s="105">
-        <v>4472.326</v>
+        <v>4469.085</v>
       </c>
       <c r="J96" s="105">
-        <v>7683.8050000000003</v>
+        <v>7552.165</v>
       </c>
       <c r="K96" s="105">
-        <v>3727.7379999999998</v>
+        <v>3792.5659999999998</v>
       </c>
       <c r="L96" s="105">
-        <v>1958.825</v>
+        <v>1968.3309999999999</v>
       </c>
       <c r="M96" s="105">
-        <v>3571.4520000000002</v>
+        <v>3592.2240000000002</v>
       </c>
       <c r="N96" s="106">
-        <v>283.97500000000002</v>
+        <v>285.08800000000002</v>
       </c>
       <c r="O96" s="104">
-        <v>27172.603999999999</v>
+        <v>27082.723000000002</v>
       </c>
       <c r="P96" s="105">
-        <v>3571.4520000000002</v>
+        <v>3592.2240000000002</v>
       </c>
       <c r="Q96" s="105">
-        <v>18436.494999999999</v>
+        <v>18404.561000000002</v>
       </c>
       <c r="R96" s="105">
-        <v>4633.3320000000003</v>
+        <v>4555.6639999999998</v>
       </c>
       <c r="S96" s="106">
-        <v>534.16099999999994</v>
+        <v>532.70399999999995</v>
       </c>
       <c r="T96" s="107">
-        <v>7.4109610000000004</v>
+        <v>7.595504</v>
       </c>
       <c r="U96" s="108">
-        <v>40.402670999999998</v>
+        <v>40.952033999999998</v>
       </c>
       <c r="V96" s="108">
-        <v>102.86382500000001</v>
+        <v>102.318997</v>
       </c>
       <c r="W96" s="108">
-        <v>55.837204</v>
+        <v>55.102635999999997</v>
       </c>
       <c r="X96" s="108">
-        <v>27.586738</v>
+        <v>27.905446000000001</v>
       </c>
       <c r="Y96" s="108">
-        <v>139.97012799999999</v>
+        <v>138.80067700000001</v>
       </c>
       <c r="Z96" s="108">
-        <v>252.65549200000001</v>
+        <v>248.41487699999999</v>
       </c>
       <c r="AA96" s="108">
-        <v>107.402237</v>
+        <v>108.99225199999999</v>
       </c>
       <c r="AB96" s="108">
-        <v>70.298119</v>
+        <v>71.304972000000006</v>
       </c>
       <c r="AC96" s="108">
-        <v>91.598100000000002</v>
+        <v>94.580895999999996</v>
       </c>
       <c r="AD96" s="108">
-        <v>6.0759220000000003</v>
+        <v>6.1580919999999999</v>
       </c>
       <c r="AE96" s="107">
-        <v>91.598100000000002</v>
+        <v>94.580895999999996</v>
       </c>
       <c r="AF96" s="108">
-        <v>597.91261799999995</v>
+        <v>595.41818999999998</v>
       </c>
       <c r="AG96" s="108">
-        <v>199.10356100000001</v>
+        <v>198.37366700000001</v>
       </c>
       <c r="AH96" s="109">
-        <v>11.550585999999999</v>
+        <v>11.792255000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" s="88"/>
       <c r="B97" s="116" t="s">
         <v>184</v>
       </c>
       <c r="C97" s="117">
-        <v>218407.46599999999</v>
+        <v>221171.38399999999</v>
       </c>
       <c r="D97" s="118">
-        <v>751.61400000000003</v>
+        <v>760.83100000000002</v>
       </c>
       <c r="E97" s="118">
-        <v>4831.3670000000002</v>
+        <v>4991.027</v>
       </c>
       <c r="F97" s="118">
-        <v>7738.5969999999998</v>
+        <v>7941.1409999999996</v>
       </c>
       <c r="G97" s="118">
-        <v>4795.0249999999996</v>
+        <v>4880.7340000000004</v>
       </c>
       <c r="H97" s="118">
-        <v>1881.317</v>
+        <v>1862.1759999999999</v>
       </c>
       <c r="I97" s="118">
-        <v>31065.628000000001</v>
+        <v>30886.236000000001</v>
       </c>
       <c r="J97" s="118">
-        <v>117296.88</v>
+        <v>119929.28200000001</v>
       </c>
       <c r="K97" s="118">
-        <v>12432.370999999999</v>
+        <v>12404.588</v>
       </c>
       <c r="L97" s="118">
-        <v>5677.0609999999997</v>
+        <v>5623.7479999999996</v>
       </c>
       <c r="M97" s="118">
-        <v>30059.45</v>
+        <v>30116.805</v>
       </c>
       <c r="N97" s="119">
         <v>3866.3910000000001</v>
       </c>
       <c r="O97" s="117">
-        <v>218407.46599999999</v>
+        <v>221171.38399999999</v>
       </c>
       <c r="P97" s="118">
-        <v>30059.45</v>
+        <v>30116.805</v>
       </c>
       <c r="Q97" s="118">
-        <v>168353.25899999999</v>
+        <v>170706.035</v>
       </c>
       <c r="R97" s="118">
-        <v>17364.989000000001</v>
+        <v>17812.902999999998</v>
       </c>
       <c r="S97" s="119">
-        <v>2654.8939999999998</v>
+        <v>2560.7890000000002</v>
       </c>
       <c r="T97" s="120">
-        <v>12.902063</v>
+        <v>12.96335</v>
       </c>
       <c r="U97" s="121">
-        <v>57.934708000000001</v>
+        <v>59.508434999999999</v>
       </c>
       <c r="V97" s="121">
-        <v>106.880505</v>
+        <v>108.03334700000001</v>
       </c>
       <c r="W97" s="121">
-        <v>48.212285999999999</v>
+        <v>47.867545</v>
       </c>
       <c r="X97" s="121">
-        <v>29.565422999999999</v>
+        <v>28.930669999999999</v>
       </c>
       <c r="Y97" s="121">
-        <v>370.118987</v>
+        <v>358.58670999999998</v>
       </c>
       <c r="Z97" s="121">
-        <v>956.59516900000006</v>
+        <v>978.66806099999997</v>
       </c>
       <c r="AA97" s="121">
-        <v>163.985916</v>
+        <v>159.03769700000001</v>
       </c>
       <c r="AB97" s="121">
-        <v>69.459667999999994</v>
+        <v>67.691834999999998</v>
       </c>
       <c r="AC97" s="121">
-        <v>339.57027499999998</v>
+        <v>335.89027099999998</v>
       </c>
       <c r="AD97" s="121">
         <v>103.253479</v>
       </c>
       <c r="AE97" s="120">
-        <v>339.57027499999998</v>
+        <v>335.89027099999998</v>
       </c>
       <c r="AF97" s="121">
-        <v>1589.72513</v>
+        <v>1592.9149930000001</v>
       </c>
       <c r="AG97" s="121">
-        <v>213.027816</v>
+        <v>215.40965700000001</v>
       </c>
       <c r="AH97" s="122">
-        <v>58.315407999999998</v>
+        <v>56.424174999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="88"/>
       <c r="B98" s="103" t="s">
         <v>185</v>
@@ -11726,7 +11723,7 @@
         <v>32.635089000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A99" s="124"/>
       <c r="B99" s="125"/>
       <c r="C99" s="111"/>
@@ -11760,9 +11757,9 @@
       <c r="AE99" s="114"/>
       <c r="AF99" s="114"/>
       <c r="AG99" s="114"/>
-      <c r="AH99" s="115"/>
+      <c r="AH99" s="114"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>186</v>
       </c>
@@ -11797,9 +11794,9 @@
       <c r="AE100" s="127"/>
       <c r="AF100" s="127"/>
       <c r="AG100" s="127"/>
-      <c r="AH100" s="128"/>
+      <c r="AH100" s="127"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>187</v>
       </c>
@@ -11834,9 +11831,9 @@
       <c r="AE101" s="127"/>
       <c r="AF101" s="127"/>
       <c r="AG101" s="127"/>
-      <c r="AH101" s="128"/>
+      <c r="AH101" s="127"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>188</v>
       </c>
@@ -11871,9 +11868,9 @@
       <c r="AE102" s="127"/>
       <c r="AF102" s="127"/>
       <c r="AG102" s="127"/>
-      <c r="AH102" s="128"/>
+      <c r="AH102" s="127"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>189</v>
       </c>
@@ -11908,9 +11905,9 @@
       <c r="AE103" s="127"/>
       <c r="AF103" s="127"/>
       <c r="AG103" s="127"/>
-      <c r="AH103" s="128"/>
+      <c r="AH103" s="127"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>190</v>
       </c>
@@ -11945,9 +11942,9 @@
       <c r="AE104" s="127"/>
       <c r="AF104" s="127"/>
       <c r="AG104" s="127"/>
-      <c r="AH104" s="128"/>
+      <c r="AH104" s="127"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
       <c r="C105" s="126"/>
       <c r="D105" s="126"/>
       <c r="E105" s="126"/>
@@ -11979,10 +11976,10 @@
       <c r="AE105" s="127"/>
       <c r="AF105" s="127"/>
       <c r="AG105" s="127"/>
-      <c r="AH105" s="128"/>
+      <c r="AH105" s="127"/>
     </row>
-    <row r="106" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="129"/>
+    <row r="106" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="128"/>
       <c r="C106" s="126"/>
       <c r="D106" s="126"/>
       <c r="E106" s="126"/>
@@ -12014,10 +12011,10 @@
       <c r="AE106" s="127"/>
       <c r="AF106" s="127"/>
       <c r="AG106" s="127"/>
-      <c r="AH106" s="128"/>
+      <c r="AH106" s="127"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B107" s="130" t="s">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B107" s="129" t="s">
         <v>191</v>
       </c>
       <c r="C107" s="126"/>
@@ -12051,9 +12048,9 @@
       <c r="AE107" s="127"/>
       <c r="AF107" s="127"/>
       <c r="AG107" s="127"/>
-      <c r="AH107" s="128"/>
+      <c r="AH107" s="127"/>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="126"/>
       <c r="D108" s="126"/>
@@ -12086,10 +12083,10 @@
       <c r="AE108" s="127"/>
       <c r="AF108" s="127"/>
       <c r="AG108" s="127"/>
-      <c r="AH108" s="128"/>
+      <c r="AH108" s="127"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B109" s="135" t="s">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B109" s="133" t="s">
         <v>193</v>
       </c>
       <c r="C109" s="126"/>
@@ -12123,10 +12120,10 @@
       <c r="AE109" s="127"/>
       <c r="AF109" s="127"/>
       <c r="AG109" s="127"/>
-      <c r="AH109" s="128"/>
+      <c r="AH109" s="127"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B110" s="135" t="s">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B110" s="133" t="s">
         <v>194</v>
       </c>
       <c r="C110" s="126"/>
@@ -12160,10 +12157,10 @@
       <c r="AE110" s="127"/>
       <c r="AF110" s="127"/>
       <c r="AG110" s="127"/>
-      <c r="AH110" s="128"/>
+      <c r="AH110" s="127"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B111" s="135" t="s">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B111" s="133" t="s">
         <v>195</v>
       </c>
       <c r="C111" s="126"/>
@@ -12197,9 +12194,9 @@
       <c r="AE111" s="127"/>
       <c r="AF111" s="127"/>
       <c r="AG111" s="127"/>
-      <c r="AH111" s="128"/>
+      <c r="AH111" s="127"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>192</v>
       </c>
@@ -12234,10 +12231,10 @@
       <c r="AE112" s="127"/>
       <c r="AF112" s="127"/>
       <c r="AG112" s="127"/>
-      <c r="AH112" s="128"/>
+      <c r="AH112" s="127"/>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B113" s="131"/>
+    <row r="113" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B113" s="130"/>
       <c r="C113" s="126"/>
       <c r="D113" s="126"/>
       <c r="E113" s="126"/>
@@ -12269,16 +12266,16 @@
       <c r="AE113" s="127"/>
       <c r="AF113" s="127"/>
       <c r="AG113" s="127"/>
-      <c r="AH113" s="128"/>
+      <c r="AH113" s="127"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B60BB442-0935-4CE9-A3E0-74FA0E918A66}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{4C83F1C9-FA20-406C-B39C-6E31DEC3578E}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{A35A3D74-182C-4E8E-81B5-0648DAFCF6E2}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{C08B62AE-E669-44E9-8F25-56FD7A8D737A}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{27B277CE-395C-457C-B0A6-51F8A43CA6DC}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{DD890474-2FB5-4F28-85FC-3B77AB29107E}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8AB1157E-0399-4FDE-84A4-DC82D23DB5B5}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{9C64E9FE-1EAE-4974-8872-C15717238DA7}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{026080DC-0668-49AC-A0D4-68327E6AFD6F}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{98C65505-D796-4D19-9BB9-5F5D97E0C802}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{AE7EC7DF-86EA-4FAA-B50B-637FE839A46D}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{5D4DB8B8-B0F9-4671-BA87-2E96B64C3A26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/DDAf_2025_Tableau_annexe_Tab34.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab34.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4574846E-3130-4771-8FF5-7AEA27537679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E3177D0-D063-44DF-AC1A-60E2A10C7CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{DFA01B64-5E20-4B11-A27F-0EF1035AFE47}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{55EE5842-193C-446E-BF5C-5B0300567843}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab34" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab34'!$A$2:$I$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab34'!$A$1:$I$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab34'!$A$2:$J$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab34'!$A$1:$J$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,117 +37,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="196">
-  <si>
-    <t>Table 34: Employment by sector</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>Total people employed in all occupations, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed in armed forces occupations, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed as legislators, senior officials and managers, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed as professionals, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed as technicians and associate professionals, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed as clerks, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed as service workers and shop and market sales workers, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed as skilled agricultural and fishery workers, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed as craft and related trades workers, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed as plant and machine operators and assemblers, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed in elementary occupations, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed in occupations not elsewhere classified, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed in occupations at all skill levels, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed in occupations at low skill level (Level 1), most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed in occupations at medium skill level (Level 2), most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed in occupations at high skill level (Level 3-4), most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total people employed in occupations at skill levels not elsewhere classified, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees in armed forces occupations, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees working as legislators, senior officials and managers, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees working as professionals, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees working as technicians and associate professionals, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees working as clerks, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees working as service workers and shop and market sales workers, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees working as skilled agricultural and fishery workers, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees working as craft and related trades workers, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees working as plant and machine operators and assemblers, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees working in elementary occupations, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees working in occupations not elsewhere classified, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees working in occupations at low skill level (Level 1), most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees working in occupations at medium skill level (Level 2), most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees working in occupations at high skill level (Level 3-4), most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees working in occupations at skill levels not elsewhere classified, most recent measure 2015-24</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="198">
+  <si>
+    <t>Tableau 34 : Emploi par secteur</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées dans toutes les professions, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées dans les professions des forces armées, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées en tant que législateurs, hauts fonctionnaires et cadres, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées en tant que professionnels, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées en tant que techniciens et professionnels associés, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées en tant qu’employés de bureau, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées en tant que travailleurs des services et vendeurs, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées en tant que travailleurs qualifiés de l’agriculture et de la pêche, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées en tant qu’ouvriers de l’artisanat et des métiers connexes, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées en tant qu’opérateurs d’installations et de machines, et assembleurs, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées dans des professions élémentaires, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées dans des professions non classées ailleurs, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées dans des professions à tous les niveaux de compétence, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées dans des professions à faible niveau de compétence (niveau 1), mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées dans des professions à niveau de compétence intermédiaire (niveau 2), mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées dans des professions à niveau de compétence élevé (niveaux 3-4), mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Nombre total de personnes employées dans des professions à niveau de compétence non classé ailleurs, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d’employés travaillant dans les professions des forces armées, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d’employés travaillant en tant que législateurs, hauts fonctionnaires et cadres, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d’employés travaillant en tant que professionnels, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d’employés travaillant en tant que techniciens et professionnels associés, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d’employés travaillant en tant qu’employés de bureau, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d’employés travaillant en tant que travailleurs des services et vendeurs, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d’employés travaillant en tant que travailleurs qualifiés de l’agriculture et de la pêche, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d’employés travaillant en tant qu’ouvriers de l’artisanat et des métiers connexes, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d’employés travaillant en tant qu’opérateurs d’installations et de machines, et assembleurs, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d’employés travaillant dans des professions élémentaires, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d’employés travaillant dans des professions non classées ailleurs, mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d’employés travaillant dans des professions à faible niveau de compétence (niveau 1), mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d’employés travaillant dans des professions à niveau de compétence intermédiaire (niveau 2), mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d’employés travaillant dans des professions à niveau de compétence élevé (niveaux 3-4), mesure la plus récente, 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d’employés travaillant dans des professions à niveau de compétence non classé ailleurs, mesure la plus récente, 2015-24</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>BWA</t>
@@ -186,19 +186,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -207,7 +207,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -219,58 +222,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -282,13 +285,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -306,7 +309,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -324,79 +327,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -408,7 +411,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -420,7 +423,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -432,13 +435,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -468,7 +471,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -483,22 +486,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -507,19 +510,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -537,104 +540,109 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Source: International Labour Organization - ILOSTAT (retrieved 09/09/2025).</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Source : Organisation internationale du travail – ILOSTAT (consulté le 09/09/2025).</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,16 +774,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1002,7 +1000,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1379,11 +1377,10 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1666,20 +1663,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB5729B-E0EA-491A-94D4-4D21A67249A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4D09D3-AAD2-4058-AC51-2DD2BE017AC8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH113"/>
+  <dimension ref="A1:AH115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="15.54296875" style="131" customWidth="1"/>
-    <col min="20" max="34" width="15.54296875" style="132" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="131" customWidth="1"/>
+    <col min="4" max="34" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1719,7 +1716,7 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="5"/>
     </row>
-    <row r="2" spans="1:34" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="74" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2864,9 +2861,11 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="43"/>
+      <c r="A13" s="43" t="s">
+        <v>56</v>
+      </c>
       <c r="B13" s="44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="45">
         <v>56007.64</v>
@@ -2967,10 +2966,10 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="34">
         <v>4953.66</v>
@@ -3071,10 +3070,10 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="34">
         <v>9287.0290000000005</v>
@@ -3175,10 +3174,10 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>43</v>
@@ -3279,10 +3278,10 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="52">
         <v>4296.9359999999997</v>
@@ -3383,10 +3382,10 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="52" t="s">
         <v>43</v>
@@ -3487,10 +3486,10 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="23">
         <v>31084.768</v>
@@ -3591,10 +3590,10 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="52" t="s">
         <v>43</v>
@@ -3695,10 +3694,10 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>43</v>
@@ -3799,10 +3798,10 @@
     </row>
     <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="59">
         <v>21.055</v>
@@ -3902,9 +3901,11 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="43"/>
+      <c r="A23" s="43" t="s">
+        <v>56</v>
+      </c>
       <c r="B23" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" s="45">
         <v>49643.447999999997</v>
@@ -4005,10 +4006,10 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" s="66">
         <v>260.14699999999999</v>
@@ -4109,10 +4110,10 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>43</v>
@@ -4213,10 +4214,10 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>43</v>
@@ -4317,10 +4318,10 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="34">
         <v>37044.436999999998</v>
@@ -4421,10 +4422,10 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" s="34">
         <v>17079.813999999998</v>
@@ -4525,10 +4526,10 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" s="34">
         <v>11051.796</v>
@@ -4629,10 +4630,10 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="34">
         <v>555.29999999999995</v>
@@ -4733,10 +4734,10 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" s="34">
         <v>4852.4960000000001</v>
@@ -4837,10 +4838,10 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" s="34">
         <v>54.991999999999997</v>
@@ -4941,10 +4942,10 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" s="34">
         <v>1036.203</v>
@@ -5045,10 +5046,10 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" s="52" t="s">
         <v>43</v>
@@ -5149,10 +5150,10 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="34" t="s">
         <v>43</v>
@@ -5253,10 +5254,10 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C36" s="34" t="s">
         <v>43</v>
@@ -5357,10 +5358,10 @@
     </row>
     <row r="37" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C37" s="37">
         <v>17969.577000000001</v>
@@ -5460,9 +5461,11 @@
       </c>
     </row>
     <row r="38" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="43"/>
+      <c r="A38" s="43" t="s">
+        <v>56</v>
+      </c>
       <c r="B38" s="44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" s="45">
         <v>89904.762000000002</v>
@@ -5563,10 +5566,10 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" s="73" t="s">
         <v>43</v>
@@ -5667,10 +5670,10 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" s="34">
         <v>29886.073</v>
@@ -5771,10 +5774,10 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B41" s="79" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" s="52" t="s">
         <v>43</v>
@@ -5875,10 +5878,10 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B42" s="79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" s="52" t="s">
         <v>43</v>
@@ -5979,10 +5982,10 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>43</v>
@@ -6083,10 +6086,10 @@
     </row>
     <row r="44" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" s="59">
         <v>3533.4090000000001</v>
@@ -6186,9 +6189,11 @@
       </c>
     </row>
     <row r="45" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="43"/>
+      <c r="A45" s="43" t="s">
+        <v>56</v>
+      </c>
       <c r="B45" s="44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C45" s="45">
         <v>33419.482000000004</v>
@@ -6289,10 +6294,10 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B46" s="65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C46" s="66">
         <v>5445.0389999999998</v>
@@ -6393,10 +6398,10 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C47" s="34">
         <v>7877.5460000000003</v>
@@ -6497,10 +6502,10 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B48" s="79" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>43</v>
@@ -6601,10 +6606,10 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C49" s="34">
         <v>11585.724</v>
@@ -6705,10 +6710,10 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C50" s="34">
         <v>623.19399999999996</v>
@@ -6809,10 +6814,10 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C51" s="23">
         <v>11676.138999999999</v>
@@ -6913,10 +6918,10 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C52" s="34">
         <v>3189.3609999999999</v>
@@ -7017,10 +7022,10 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C53" s="34">
         <v>711.52200000000005</v>
@@ -7121,10 +7126,10 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" s="34" t="s">
         <v>43</v>
@@ -7225,10 +7230,10 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C55" s="34">
         <v>6545.8</v>
@@ -7329,10 +7334,10 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C56" s="34">
         <v>9303.02</v>
@@ -7433,10 +7438,10 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C57" s="34" t="s">
         <v>43</v>
@@ -7537,10 +7542,10 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C58" s="34">
         <v>5355.6559999999999</v>
@@ -7641,10 +7646,10 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C59" s="34">
         <v>2569.9589999999998</v>
@@ -7745,10 +7750,10 @@
     </row>
     <row r="60" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C60" s="37">
         <v>3364.201</v>
@@ -7848,9 +7853,11 @@
       </c>
     </row>
     <row r="61" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="43"/>
+      <c r="A61" s="43" t="s">
+        <v>56</v>
+      </c>
       <c r="B61" s="44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C61" s="45">
         <v>68247.160999999993</v>
@@ -7950,9 +7957,11 @@
       </c>
     </row>
     <row r="62" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="80"/>
+      <c r="A62" s="80" t="s">
+        <v>56</v>
+      </c>
       <c r="B62" s="81" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C62" s="82">
         <v>297222.49300000002</v>
@@ -8052,9 +8061,11 @@
       </c>
     </row>
     <row r="63" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="80"/>
+      <c r="A63" s="80" t="s">
+        <v>56</v>
+      </c>
       <c r="B63" s="81" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C63" s="82">
         <v>1952105.9879999999</v>
@@ -8154,9 +8165,11 @@
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A64" s="88"/>
+      <c r="A64" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B64" s="89" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C64" s="90">
         <v>285767.94</v>
@@ -8256,9 +8269,11 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A65" s="88"/>
+      <c r="A65" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B65" s="96" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C65" s="97">
         <v>987077.19200000004</v>
@@ -8358,9 +8373,11 @@
       </c>
     </row>
     <row r="66" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="88"/>
+      <c r="A66" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B66" s="103" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C66" s="104">
         <v>2249328.4810000001</v>
@@ -8460,9 +8477,11 @@
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A67" s="88"/>
+      <c r="A67" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B67" s="96" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C67" s="97">
         <v>171872.927</v>
@@ -8562,9 +8581,11 @@
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A68" s="88"/>
+      <c r="A68" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B68" s="96" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C68" s="97">
         <v>107259.929</v>
@@ -8664,9 +8685,11 @@
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A69" s="88"/>
+      <c r="A69" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B69" s="96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C69" s="97">
         <v>75940.315000000002</v>
@@ -8766,9 +8789,11 @@
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A70" s="88"/>
+      <c r="A70" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B70" s="96" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C70" s="97">
         <v>66275.558000000005</v>
@@ -8868,9 +8893,11 @@
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A71" s="88"/>
+      <c r="A71" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B71" s="96" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C71" s="97">
         <v>68247.160999999993</v>
@@ -8970,9 +8997,11 @@
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A72" s="88"/>
+      <c r="A72" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B72" s="96" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C72" s="97">
         <v>73130.031000000003</v>
@@ -9072,9 +9101,11 @@
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A73" s="88"/>
+      <c r="A73" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B73" s="96" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C73" s="97">
         <v>99014.642999999996</v>
@@ -9174,9 +9205,11 @@
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A74" s="88"/>
+      <c r="A74" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B74" s="96" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C74" s="97">
         <v>3533.4090000000001</v>
@@ -9276,9 +9309,11 @@
       </c>
     </row>
     <row r="75" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="88"/>
+      <c r="A75" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B75" s="96" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C75" s="110">
         <v>24706.516</v>
@@ -9378,9 +9413,11 @@
       </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A76" s="88"/>
+      <c r="A76" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B76" s="116" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76" s="117">
         <v>322640.739</v>
@@ -9480,9 +9517,11 @@
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A77" s="88"/>
+      <c r="A77" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B77" s="96" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C77" s="97">
         <v>202144.46</v>
@@ -9582,9 +9621,11 @@
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A78" s="88"/>
+      <c r="A78" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B78" s="96" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C78" s="97">
         <v>203146.61199999999</v>
@@ -9684,9 +9725,11 @@
       </c>
     </row>
     <row r="79" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="88"/>
+      <c r="A79" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B79" s="103" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C79" s="104">
         <v>632698.44499999995</v>
@@ -9786,9 +9829,11 @@
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A80" s="88"/>
+      <c r="A80" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B80" s="116" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C80" s="117">
         <v>16076.55</v>
@@ -9888,9 +9933,11 @@
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A81" s="88"/>
+      <c r="A81" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B81" s="96" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C81" s="97">
         <v>144290.02600000001</v>
@@ -9990,9 +10037,11 @@
       </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A82" s="88"/>
+      <c r="A82" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B82" s="96" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C82" s="97">
         <v>281145.94300000003</v>
@@ -10092,9 +10141,11 @@
       </c>
     </row>
     <row r="83" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="88"/>
+      <c r="A83" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B83" s="103" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C83" s="104">
         <v>1807815.9620000001</v>
@@ -10194,9 +10245,11 @@
       </c>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A84" s="88"/>
+      <c r="A84" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B84" s="116" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C84" s="117">
         <v>118435.003</v>
@@ -10296,9 +10349,11 @@
       </c>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A85" s="88"/>
+      <c r="A85" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B85" s="123" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C85" s="97">
         <v>7679.4740000000002</v>
@@ -10398,9 +10453,11 @@
       </c>
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A86" s="88"/>
+      <c r="A86" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B86" s="96" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C86" s="97">
         <v>123135.34600000001</v>
@@ -10500,9 +10557,11 @@
       </c>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A87" s="88"/>
+      <c r="A87" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B87" s="96" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C87" s="97">
         <v>780618.78399999999</v>
@@ -10602,9 +10661,11 @@
       </c>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A88" s="88"/>
+      <c r="A88" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B88" s="96" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C88" s="97">
         <v>18552.715</v>
@@ -10704,9 +10765,11 @@
       </c>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A89" s="88"/>
+      <c r="A89" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B89" s="96" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C89" s="97">
         <v>521496.83299999998</v>
@@ -10806,9 +10869,11 @@
       </c>
     </row>
     <row r="90" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="88"/>
+      <c r="A90" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B90" s="103" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C90" s="104">
         <v>627785.60400000005</v>
@@ -10908,9 +10973,11 @@
       </c>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A91" s="88"/>
+      <c r="A91" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B91" s="116" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C91" s="117">
         <v>189073.22500000001</v>
@@ -11010,9 +11077,11 @@
       </c>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A92" s="88"/>
+      <c r="A92" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B92" s="96" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C92" s="97">
         <v>111138.776</v>
@@ -11112,9 +11181,11 @@
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A93" s="88"/>
+      <c r="A93" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B93" s="96" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C93" s="97">
         <v>1603.0160000000001</v>
@@ -11214,9 +11285,11 @@
       </c>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A94" s="88"/>
+      <c r="A94" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B94" s="96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C94" s="97">
         <v>22482.707999999999</v>
@@ -11316,9 +11389,11 @@
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A95" s="88"/>
+      <c r="A95" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B95" s="96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C95" s="97">
         <v>107026.82</v>
@@ -11418,9 +11493,11 @@
       </c>
     </row>
     <row r="96" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="88"/>
+      <c r="A96" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B96" s="103" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C96" s="104">
         <v>27082.723000000002</v>
@@ -11520,9 +11597,11 @@
       </c>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A97" s="88"/>
+      <c r="A97" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B97" s="116" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C97" s="117">
         <v>221171.38399999999</v>
@@ -11622,9 +11701,11 @@
       </c>
     </row>
     <row r="98" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="88"/>
+      <c r="A98" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="B98" s="103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C98" s="104">
         <v>234340.86499999999</v>
@@ -11757,11 +11838,11 @@
       <c r="AE99" s="114"/>
       <c r="AF99" s="114"/>
       <c r="AG99" s="114"/>
-      <c r="AH99" s="114"/>
+      <c r="AH99" s="115"/>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C100" s="126"/>
       <c r="D100" s="126"/>
@@ -11794,11 +11875,11 @@
       <c r="AE100" s="127"/>
       <c r="AF100" s="127"/>
       <c r="AG100" s="127"/>
-      <c r="AH100" s="127"/>
+      <c r="AH100" s="128"/>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C101" s="126"/>
       <c r="D101" s="126"/>
@@ -11831,11 +11912,11 @@
       <c r="AE101" s="127"/>
       <c r="AF101" s="127"/>
       <c r="AG101" s="127"/>
-      <c r="AH101" s="127"/>
+      <c r="AH101" s="128"/>
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C102" s="126"/>
       <c r="D102" s="126"/>
@@ -11868,11 +11949,11 @@
       <c r="AE102" s="127"/>
       <c r="AF102" s="127"/>
       <c r="AG102" s="127"/>
-      <c r="AH102" s="127"/>
+      <c r="AH102" s="128"/>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C103" s="126"/>
       <c r="D103" s="126"/>
@@ -11905,11 +11986,11 @@
       <c r="AE103" s="127"/>
       <c r="AF103" s="127"/>
       <c r="AG103" s="127"/>
-      <c r="AH103" s="127"/>
+      <c r="AH103" s="128"/>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C104" s="126"/>
       <c r="D104" s="126"/>
@@ -11942,9 +12023,12 @@
       <c r="AE104" s="127"/>
       <c r="AF104" s="127"/>
       <c r="AG104" s="127"/>
-      <c r="AH104" s="127"/>
+      <c r="AH104" s="128"/>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="C105" s="126"/>
       <c r="D105" s="126"/>
       <c r="E105" s="126"/>
@@ -11976,10 +12060,13 @@
       <c r="AE105" s="127"/>
       <c r="AF105" s="127"/>
       <c r="AG105" s="127"/>
-      <c r="AH105" s="127"/>
+      <c r="AH105" s="128"/>
     </row>
     <row r="106" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B106" s="128"/>
+      <c r="A106" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106" s="129"/>
       <c r="C106" s="126"/>
       <c r="D106" s="126"/>
       <c r="E106" s="126"/>
@@ -12011,12 +12098,10 @@
       <c r="AE106" s="127"/>
       <c r="AF106" s="127"/>
       <c r="AG106" s="127"/>
-      <c r="AH106" s="127"/>
+      <c r="AH106" s="128"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B107" s="129" t="s">
-        <v>191</v>
-      </c>
+    <row r="107" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="129"/>
       <c r="C107" s="126"/>
       <c r="D107" s="126"/>
       <c r="E107" s="126"/>
@@ -12048,10 +12133,12 @@
       <c r="AE107" s="127"/>
       <c r="AF107" s="127"/>
       <c r="AG107" s="127"/>
-      <c r="AH107" s="127"/>
+      <c r="AH107" s="128"/>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="132" t="s">
+        <v>196</v>
+      </c>
       <c r="C108" s="126"/>
       <c r="D108" s="126"/>
       <c r="E108" s="126"/>
@@ -12083,12 +12170,10 @@
       <c r="AE108" s="127"/>
       <c r="AF108" s="127"/>
       <c r="AG108" s="127"/>
-      <c r="AH108" s="127"/>
+      <c r="AH108" s="128"/>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B109" s="133" t="s">
-        <v>193</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="126"/>
       <c r="D109" s="126"/>
       <c r="E109" s="126"/>
@@ -12120,11 +12205,11 @@
       <c r="AE109" s="127"/>
       <c r="AF109" s="127"/>
       <c r="AG109" s="127"/>
-      <c r="AH109" s="127"/>
+      <c r="AH109" s="128"/>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B110" s="133" t="s">
-        <v>194</v>
+      <c r="B110" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C110" s="126"/>
       <c r="D110" s="126"/>
@@ -12157,11 +12242,11 @@
       <c r="AE110" s="127"/>
       <c r="AF110" s="127"/>
       <c r="AG110" s="127"/>
-      <c r="AH110" s="127"/>
+      <c r="AH110" s="128"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B111" s="133" t="s">
-        <v>195</v>
+      <c r="B111" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C111" s="126"/>
       <c r="D111" s="126"/>
@@ -12194,11 +12279,11 @@
       <c r="AE111" s="127"/>
       <c r="AF111" s="127"/>
       <c r="AG111" s="127"/>
-      <c r="AH111" s="127"/>
+      <c r="AH111" s="128"/>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>192</v>
+      <c r="B112" s="132" t="s">
+        <v>197</v>
       </c>
       <c r="C112" s="126"/>
       <c r="D112" s="126"/>
@@ -12231,10 +12316,12 @@
       <c r="AE112" s="127"/>
       <c r="AF112" s="127"/>
       <c r="AG112" s="127"/>
-      <c r="AH112" s="127"/>
+      <c r="AH112" s="128"/>
     </row>
     <row r="113" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B113" s="130"/>
+      <c r="B113" s="132" t="s">
+        <v>195</v>
+      </c>
       <c r="C113" s="126"/>
       <c r="D113" s="126"/>
       <c r="E113" s="126"/>
@@ -12266,19 +12353,81 @@
       <c r="AE113" s="127"/>
       <c r="AF113" s="127"/>
       <c r="AG113" s="127"/>
-      <c r="AH113" s="127"/>
+      <c r="AH113" s="128"/>
+    </row>
+    <row r="114" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B114" s="130"/>
+      <c r="C114" s="126"/>
+      <c r="D114" s="126"/>
+      <c r="E114" s="126"/>
+      <c r="F114" s="126"/>
+      <c r="G114" s="126"/>
+      <c r="H114" s="126"/>
+      <c r="I114" s="126"/>
+      <c r="J114" s="126"/>
+      <c r="K114" s="126"/>
+      <c r="L114" s="126"/>
+      <c r="M114" s="126"/>
+      <c r="N114" s="126"/>
+      <c r="O114" s="126"/>
+      <c r="P114" s="126"/>
+      <c r="Q114" s="126"/>
+      <c r="R114" s="126"/>
+      <c r="S114" s="126"/>
+      <c r="T114" s="127"/>
+      <c r="U114" s="127"/>
+      <c r="V114" s="127"/>
+      <c r="W114" s="127"/>
+      <c r="X114" s="127"/>
+      <c r="Y114" s="127"/>
+      <c r="Z114" s="127"/>
+      <c r="AA114" s="127"/>
+      <c r="AB114" s="127"/>
+      <c r="AC114" s="127"/>
+      <c r="AD114" s="127"/>
+      <c r="AE114" s="127"/>
+      <c r="AF114" s="127"/>
+      <c r="AG114" s="127"/>
+      <c r="AH114" s="128"/>
+    </row>
+    <row r="115" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B115" s="130"/>
+      <c r="C115" s="126"/>
+      <c r="D115" s="126"/>
+      <c r="E115" s="126"/>
+      <c r="F115" s="126"/>
+      <c r="G115" s="126"/>
+      <c r="H115" s="126"/>
+      <c r="I115" s="126"/>
+      <c r="J115" s="126"/>
+      <c r="K115" s="126"/>
+      <c r="L115" s="126"/>
+      <c r="M115" s="126"/>
+      <c r="N115" s="126"/>
+      <c r="O115" s="126"/>
+      <c r="P115" s="126"/>
+      <c r="Q115" s="126"/>
+      <c r="R115" s="126"/>
+      <c r="S115" s="126"/>
+      <c r="T115" s="126"/>
+      <c r="U115" s="126"/>
+      <c r="V115" s="126"/>
+      <c r="W115" s="126"/>
+      <c r="X115" s="126"/>
+      <c r="Y115" s="126"/>
+      <c r="Z115" s="126"/>
+      <c r="AA115" s="126"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8AB1157E-0399-4FDE-84A4-DC82D23DB5B5}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{9C64E9FE-1EAE-4974-8872-C15717238DA7}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{026080DC-0668-49AC-A0D4-68327E6AFD6F}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{98C65505-D796-4D19-9BB9-5F5D97E0C802}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{AE7EC7DF-86EA-4FAA-B50B-637FE839A46D}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{5D4DB8B8-B0F9-4671-BA87-2E96B64C3A26}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E3609CB5-FE74-4E97-8730-D035F8B839A2}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1BBAE46A-9C21-4E28-A3B6-FB16FD204E21}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{A2674713-9496-4FB5-B115-429C00EFDAD6}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{17010F61-5D98-456E-8D1B-F5CF70FCE501}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{49FBFECF-CB52-492E-AD7D-2A65B99B01D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
